--- a/news_data/2016_05.xlsx
+++ b/news_data/2016_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,93 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>이필구 경기도의원, 제주도서 '道 관광활성화 연찬회'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '관광사업체 안전노동 교육' 실시</t>
+  </si>
+  <si>
+    <t>쌍방울, 中 중발그룹·뉴화청여행사와 제주도 관광사업 추진</t>
+  </si>
+  <si>
+    <t>제주도, 다각적인 관광객 유치 전략 본격화</t>
+  </si>
+  <si>
+    <t>호남대 관광경영학과, 제주도 일대 국내답사</t>
+  </si>
+  <si>
+    <t>쌍방울, 中 중발그룹ㆍ뉴화청여행사와 제주도 부동산 및 관광 사업 추진</t>
+  </si>
+  <si>
+    <t>제주포럼, 제주도-오키나와-하이난성 연결하는 한중일 크루즈 관광 제안해</t>
+  </si>
+  <si>
+    <t>"세계자연유산, 제주도가 3류 저가관광지로 전락시켜"</t>
+  </si>
+  <si>
+    <t>제주도-인도네시아, 에너지.관광 분야 협력 모색</t>
+  </si>
+  <si>
+    <t>방한 외국인관광객 18.3% 제주도 여행...'성산일출봉' 최고</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 업계 공동 북경지역 비즈니스 세일즈 전개</t>
+  </si>
+  <si>
+    <t>제주도-JTO, 생태관광 활성화 사업 추진</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 日도쿄-오사카 세일즈콜</t>
+  </si>
+  <si>
+    <t>제주도, 관광정책과장 현근협-환경보전과장 현석교 발령</t>
+  </si>
+  <si>
+    <t>“‘말 바꾸기’ 아냐” 제주도 “신규는 관광지로 추진” 교통정리</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 2천만명 시대 대비 관광국 신설</t>
+  </si>
+  <si>
+    <t>제주도 관광객 는다지만…자영업자들은 '울상'</t>
+  </si>
+  <si>
+    <t>제주도, 관광국 신설…조직개편안 발표</t>
+  </si>
+  <si>
+    <t>제주도, 외국인환자 유치 의료관광 홍보관 운영</t>
+  </si>
+  <si>
+    <t>제주도 ‘관광과장-계장’ 동시 공석…관광1번지 맞아?</t>
+  </si>
+  <si>
+    <t>'황금연휴 제주도 다녀온 中 관광객들'</t>
+  </si>
+  <si>
+    <t>인천 이어 제주도 예고된 파행(?)...답답한 제주시와 관광협회</t>
+  </si>
+  <si>
+    <t>제주도 신임 비서실장에 김태엽 관광정책과장 임명</t>
+  </si>
+  <si>
+    <t>제주도, 여행주간 맞아 관광객 맞이 '주력'</t>
+  </si>
+  <si>
+    <t>전국 첫 관광국 신설…수자원 정책 제주도 본청 이관</t>
+  </si>
+  <si>
+    <t>제주도 관광지서 새끼낙타 7마리 출산..."우와, 귀엽다"</t>
+  </si>
+  <si>
+    <t>제주도·베트남관광협회 '맞손'</t>
+  </si>
+  <si>
+    <t>제주도에 관광국 신설...일부 사업소는 통폐합</t>
+  </si>
+  <si>
+    <t>제주도, 만성적자 공영관광지 요금 올리나</t>
+  </si>
+  <si>
     <t>제주도 조직개편안...국제통상국 '해체', 관광국 '신설'</t>
   </si>
   <si>
@@ -43,37 +130,103 @@
     <t>제주도 '폭설·강풍' 기상악화 빈번…공항에 발 묶이는 관광객 수 급증</t>
   </si>
   <si>
-    <t>쌍방울, 中 중발그룹ㆍ뉴화청여행사와 제주도 부동산 및 관광 사업 추진</t>
-  </si>
-  <si>
     <t>제주도관광협회 나눔봉사단, 보육원 어린이 체험학습 지원</t>
   </si>
   <si>
     <t>제주도 중문관광단지 인근 '더바른' 아파텔 분양</t>
   </si>
   <si>
-    <t>제주도 조직개편안...국제통상국 '해체', 관광국 '신설' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 조직개편안...국제통상국 '해체', 관광국 '신설' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 조직개편안...국제통상국 '해체', 관광국 '신설' 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2016.05.12 17:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 6월 도의회 임시회 거쳐 7월 정기인사부터 적용 행정시 '1국' 증설 집행기능 강화...'새판짜기' 본격화 제주특별자치도 조직개편안이 마련돼, 6월 도의회 임시회를 거쳐 7월 정기인사부터 본격 시행된다.제주특별자치도는 지난해 (주)한국능률협회컨설팅에 의뢰해 수행했던 조직진단 연구용역 결과를 바탕으로 해 추가 논의를 거쳐 조직개편 작업을 마무리하고, 13일 이의 내용을 담은 제주도 행정기구설치조례 개정안 및 제주도 공무원정원조례 개정안을 입법예고한다고 밝혔다.이번 조직개편안은 제주도의 경우 기획기능을 강화하고, 행정시 조직은 집행기능을 강화하는 방향으로 짜여졌다고 밝혔다. 제주도 본청 조직의 경우 경제부지사 신설 없이 현행 행정부지사와 정무부지사를 중심으로 한 '2실, 2본부, 9국체제'를 그대로 유지하면서 실.본부.국 단위 조직을 상당부분 재편했다.그중 '국제통상국'은 편재된 과 단위 조직을 다른 국으로 이동시키는 방향으로 통폐합되면서 사실상 해체된다.대신 국내 지자체에서는 처음으로 '관광국'이 신설된다. 제주관광 정책의 컨트롤타워 역할을 하게 될 '관광국'은 국제통상국 소속이던 투자정책과를 비롯해 관광정책과, 관광산업과, 카지노산업과로 편재된다. '문화스포츠국'은 종전 문화정책과와 스포츠산업과, 그리고 국제통상국 소속이던 평화협력과 등으로 편재된다.환경국과 공항인프라확충본부는 정무부지사 직속으로 놓기로 했다. 3급 직위의 '세계자연유산본부'도 신설된다.통상정책과와 의회협력담당관 등 4개과는 연관 과 단위 부서와 업무를 통합하는 것으로 결론이 났다.대신 전략산업과를 신설해 전기차와 신재생에너지 업무를 담당하도록 하고, 도시재생과 등 3개과가 새롭게 편재된다.특별자치행정국 소속으로 이동하는 것이 검토됐던 총무과는 현행대로 행정부지사 직속 독립부서를 그대로 유지하기로 했다.기획조정실에는 미래비전과 국제자유도시종합계획 업무를 통합해 '국제자유도시.미래비전' 담당직제가 신설된다.청렴감찰 조직 강화 차원에서 '공직윤리감찰관' 등도 설치된다.이와함께 행정시 조직은 1개국이 신설되면서 한층 강화된다.제주시는 '안전교통국'이 신설되면서 기존 6국에서 7국체제로 재편된다. 서귀포시는 '문화관광국'이 신설되면서 5국체제에서 6국체제로 바뀌게 됐다.감사위원회의 경우 기능 강화를 위해 '1과.1팀'이 증설된다.이번 조직개편이 6월 도의회에 통과되면, 원희룡 제주도지사 임기 반환점인 7월 중 하반기 정기인사를 단행할 예정이다. &lt;헤드라인제주&gt;&lt;윤철수 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회-베트남광린성관광협회, 우호교류 협약 체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-베트남광린성관광협회, 우호교류 협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회-베트남광린성관광협회, 우호교류 협약 체결 기자명 고병수 기자 입력 2016.05.03 13:04 수정 2016.05.03 13:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 베트남 관광시장 공략 위한 비즈니스 협력 네트워크 확대 (제주=국제뉴스) 고병수기자 = 제주도와 제주특별자치도관광협회(회장 김영진)는 지난 4월28일 호치민-제주 직항 전세기를 통해 제주를 방문한 베트남관광협회 응웬 휴 토우 회장과 광린성관광협회 응웬 티 바오 회장 외 관계자 20여명을 맞아 환영행사 및 우호교류 간담회를 가졌다고 3일 밝혔다.이와 함께 道관광협회와 베트남 광린성관광협회는 2일 제주웰컴센터에서 양 지역간 관광‧문화‧스포츠교류 비즈니스 협력마케팅 증진을 위한 우호교류 협약을 체결했다.이에 앞서 道관광협회는 베트남 전 지역을 아우르며 베트남관광산업의 핵심적인 역할을 수행하고 있는 베트남관광협회와 2015년 3월 24일 우호교류 협약을 맺은바 있고 지속적인 교류를 통해 상호 관광산업 발전을 위한 다양한 협업 체계를 구축해 나가고 있다.이번 협약을 맺은 베트남 광린성지역은 지난 2011년 제주와 함께 세계 7대자연경관에 선정된 하롱베이시로 유명한 곳으로 수려한 자연경관으로 유사점이 많은 양 지역을 대표하는 유력 관광단체의 공동 협력 마케팅이 앞으로 기대가 되고 있다.이와 함께 베트남 최대 국영여행사인 사이공투어리스트와 도내업계는 베트남 부유층을 대상으로 제주관광상품을 개발‧판매해 베트남‧광린성관광협회 방문단과 같은 직항 전세기편을 이용 150여명이 입국해 지난 29일부터 3일까지 제주에 체류하는 투어일정을 진행했다. 관계자는 "앞으로 제주도와 도관광협회는 이번 우호협력 네트워크 채널의 확대를 기회삼아 베트남 관광객들이 좀 더 많이 제주를 방문하도록 직항 전세기 상품 개발 등 접근성 개선에 집중할 계획"이라고 말했다.또한 "무비자를 악용한 불법체류자 양성을 근절하기 위해 베트남 국영여행사를 활용한 안정적인 관광객유입이 확보되도록 최선을 다할 예정"이라고 덧붙였다.한편 제주입도 베트남 관광객은 2014년에는 3만1900여명, 2015년도 2만6800여명으로 전년대비 16% 감소했고 2016년도는 1월말 현재 770명의 베트남 관광객이 제주를 방문했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>이데일리-세상을 올바르게,세상을 따뜻하게 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 04일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 이재명 디지털화폐 G6 테슬라 특징주 경제 로봇 이데일리 e 단독 경제 정치 사회 증권 부동산 문화 연예 오피니언 포토 글로벌마켓 팜이데일리 마켓in 스냅타임 PICK NEWS '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 PICK NEWS 北도발에 9시 NSC 개최, 윤 대통령 "저는 중간에 참석" (영상)"돕겠다"..생방송 중 이재민에 뛰어간 카메라맨 "멀쩡히 살아계신 아버지가 '죽은 목숨' 이 되기까지…" 박명수 "'의사 아내' 한수민 조건 보고 결혼해" 경찰이 조작한 살인범…진범이 무죄를 증언하다 윤건영 "감사원 사냥개 노릇 참담, 文 절제하신 것" 윤건영 더불어민주당 의원이 감사원 서면질의 요구에 문재인 전 대통령이 격앙된 반응을 보인 것이 사실이라며 “하실 말씀은 많아 보였지만 절제하신 것”이라고 전했다.사진=민주당 제공청와대 비서관을 지낸 윤 의원은 4일 오전 MBC라디오 ‘김종배의 시선집중’과의 인터뷰에서... “월급 줄 돈 없어”..기증된 인체조직 ‘할인판매’한 공공기관 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받은 인체조직을 할인 판매한 것으로 드러났다. 지난 3일 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받... 팜이데일리 유원상 유유제약 대표, 美 안과학회서 안구건조증 치료제 후보물질 홍보 셀트리온, 장질환 환자 위해 팔 걷어...‘과장님 케어’ 앱 출시 디티앤씨알오, 증권신고서 제출… 연내 코스닥 상장 목표 크리스탈지노믹스, 면역항암제 ‘캄렐리주맙’ 시판 허가 위한 가교 임상 신청 실시간뉴스 오은영, 외국인 아내에 폭언+게임 중독 남편에 "1일 1영상 찍어라" 조언 권익위, 광주시 행심위와 행정심판 제도운영 발전 방안 논의 ‘마약 무혐의’ 이상보 “병원검사 음성인데 실명 보도돼…억울함 더 없길” 尹발언 풍자한 BBC…이준석 "어떻게 해석해도 망했다" 신보, 삼성중공업 협력업체 4곳에 65억원 보증지원 [국감]이상민 장관 "일잘하는 정부, 함께 잘사는 안전한 나라 완성" 美재무부 "가상자산, 금융시스템 위협"…금융당국에 규제 강화 촉구 '文, 감사원 조사 거부'에…주호영 "사건에 문제 많구나" 믿보 작감→이다희·최시원 절친 케미…'얼어죽을 연애따위' 관전포인트 전북대 교수, 새만금 사업권 중국자본에 넘겨 ‘연간 500억’ 유출 이슈 포커스 #尹 대통령 비속어 파문 #국민의힘 당내 갈등 #집값, 폭락 vs 그래도 상승? #금리 인상 여파 #신당역 역무원 피살 사건 北, 중거리 탄도미사일 발사…日 상공 넘어 4500㎞ 비행(종합2보) 합동참모본부는 4일 북한이 탄도미사일을 발사했다고 발표했다. 북한은 이날 중거리 미사일을 발사해 일본 상공을 넘겼다. 합참은 이날 “우리 군은 오전 7시 23분께 자강도 무평리 일대에서 발사돼 동쪽 방향으로 일본 상공을 통과한 중거리 탄도미사일로 추정되는 1발을 포착... 재정지출 제어 없으면 2060년 국민 1인당 나랏빚 1억원 넘는다 정부의 재정수지와 국가채무비율을 관리하는 재정준칙을 도입하지 않으면 2060년 국민 1인당 국가채무가 1억원을 넘을 거라는 분석이 나왔다.(사진=연합뉴스)4일 국회 기획재정위원회 소속 김상훈 국민의힘 의원이 국회 예산정책처에 의뢰해 추계한 ‘2022~2070년 국가채... 尹대통령, 중소·스타트업 챙기며 ‘경제행보’ 속도 윤석열 대통령은 4일 중소벤처기업 및 스타트업 관계자들을 만나 애로사항을 청취하고 지원 방안을 모색하는 등 민생경제 행보를 이어간다. 윤석열 대통령이 1일 충남 계룡대 대연병장에서 열린 건군 ‘제74주년 국군의 날’ 기념식에 참석한 뒤 기념식장을 나서고 있다. (사진... 이탄희 "공무원은 엄단, 법관은 물징계…두 얼굴의 법원" 혈중알코올농도 0.181% 상태에서 음주운전을 한 경찰관은 ‘파면’된 반면, 그보다 혈중알코올농도가 높았던 판사(0.184%)는 ‘정직 1개월’ 처분을 받았다. 관내 변호사로부터 11차례 골프 접대를 받은 판사는 ‘정직 2개월’, 건축사와 4차례 골프를 친 지방공무원... 北, 이번엔 중거리 탄도미사일 발사..日 상공 통과 합동참모본부는 4일 북한이 탄도미사일을 발사했다고 발표했다. 북한은 이날 중거리 미사일을 발사해 일본 상공을 넘겼다. 합참은 이날 “우리 군은 오전 7시 23분께 자강도 무평리 일대에서 발사돼 동쪽 방향으로 일본 상공을 통과한 중거리 탄도미사일로 추정되는 1발을 포착... ‘채널A 기자 명예훼손 혐의’ 최강욱, 오늘 1심 선고 [뉴스새벽배송]英 감세안 철회하자 美증시 뛰었다…2% 반등 미국 3대 지수가 일제히 2% 이상 오르며 상승 마감했다. 영국 정부가 소득세 최고세율 45% 폐지 계획을 추진하지 않겠다고 밝히면서 파운드화가 뛰고 달러가 급락하면서 투자심리가 살아난 영향이다. 이번주 미국은 첨단 반도체 기술에 중국 접근을 제한하는 제재 조치를 발... 이언주, 삭발 회고, 與 비판.."자유? 권력자의 자유 뿐" 조종석엔 김건희..고등학생이 그린 '윤석열차' '한국이 몰라본 류지수' 이탈리아와 두번째 컬래버 어린 청어 19t 떼죽음…“수질오염 폐사 양상과 달라” 인터뷰더보기 “재정준칙 도입은 방만했던 재정 정상화하는 정책”[만났습니다] “2017년 660조원이던 국가채무는 5년만에 1000조원이 넘어가게 됐습니다. 재정준칙은 지난 5년 동안 방만했던 재정을 정상화하는 정책이라고 할 수 있습니다. 나라의 금고를 보다 튼실하게 만드는 것에 주안점을 둬야 합니다.”[이데일리 노진환 기자] 박대출 국회 기... 궁금하세요? 즉시 답해드립니다.더보기 빨간불·노란불…자동차 경고등은 어떤 의미인가요? 답변확인 '마약 1회분에 치킨 한마리 값'…가격이 싸졌다는데 사실인가요? 답변확인 에르메스의 ‘되팔이 금지조항’, 불공정 약관 아닌가요? 답변확인 박명수 "'의사 아내' 한수민 조건 보고 결혼해" (사진=MBC ‘안 싸우면 다행이야’ 방송화면)[이데일리 스타in 윤기백 기자] 개그맨 박명수가 아내 한수민의 조건을 보고 결혼했다고 솔직하게 답했다.박명수는 3일 방송된 MBC 예능 ‘안 싸우면 다행이야’에 출연해 결혼 생활에 대해 밝혔다.이날 방송에서 아이키는 남편... K오피스 코믹드라마 ‘가우스전자’ 제대로 터졌다 올레tv 오리지널 드라마 ‘가우스전자’가 대한민국 회사 생활의 현실을 코믹하게 그려낸 현실 공감으로 웃음 포텐을 터뜨렸다.KT 스튜디오지니가 기획하고 팬엔터테인먼트·링가링에서 제작했으며, 연출 박준수, 극본 강고은·서한나가 맡았다. 주요 출연진으로는 배우 곽동연, 고... ENA 새 드라마 ‘얼어죽을 연애따위’ 우영우 인기 잇나 “그래 나 속물이다!” ‘얼어죽을 연애따위’ 이다희가 최시원 앞에서 서러운 눈물을 쏟았다.오는 10월 5일 수요일 밤 9시 첫 방송하는 ENA 새 수목드라마 ‘얼어죽을 연애따위’(극본 김솔지·연출 최규식·기획 KT스튜디오지니·제작 스토리티비)다. 작품은 20년 절친 ... ‘PD수첩’ 노숙인시설 심층취재…‘엄마의 24년-청소된 사람들’ “중학교 2학년 여름방학이었는데, 어머니가 일하러 나가시는 모습을 봤습니다. 제가 엄마! 하고 큰 소리로 부르니까 엄마가 뒤를 쳐다보시더라고요, 저희 있는 데를...”(임경애 아들 오충빈).1983년 여름. 복도 난간 창밖으로 고개를 내민 소년(오충빈 씨)은 미용실로... 황보라, 11월 결혼식 앞두고 혼인신고 먼저 한 사연 (사진=SBS ‘동상이몽2’ 방송화면)[이데일리 스타in 윤기백 기자] 오는 11월 결혼식을 앞둔 배우 황보라가 혼인신고를 먼저 하게 된 사연을 밝혔다.황보라는 3일 방송된 SBS ‘동상이몽2-너는 내 운명’에 스페셜 게스트로 출연했다. 황보라는 오는 11월 6일 배우... 오피니언더보기 사설 정쟁판 뻔할 국감, "없느니만 못하다" 소리 들어선 안돼 서소문칼럼 고물가, 기업 타박만이 답인가 데스크칼럼 부동산 시장, 지금은 인내의 시간[데스크의 눈] 연재기사 외환브리핑 김보겸의 일본in 그해 오늘 김관용의 軍界一學 플라스틱 넷제로 헬프! 애니멀 딴소리 김현아의 IT 세상읽기 이데일리 YouTube 투자의 이유, 이유TV 모든 투자엔 이유가 있다 PLAY [LIVE] 투자의 이유, 이유TV (20220929) 2022-09-30 오후 9:20:08 복덕방기자들 기자들이 말하는 부동산 이야기 PLAY 하락장에도 경매로 돈 버는 방법이 있다 2022-09-30 오후 5:04:56 약오른기자들 바이오 성공 투자! 1%를 위한 PLAY 뿌리는 탈모약 ‘핀쥬베’ 내년 출시, 효과는? #팜이데일리 2022-09-30 오후 4:39:47 스냅타임 MZ세대를 위한 뉴스! PLAY 전기요금 3개월마다 오르는 이유 2022-09-30 오후 3:14:08 Today’s 컷뉴스 # 서학개미 리포트 "우버, 다년간 이익 성장 기대…주가 2배 뛸 듯" # 공식 기안84, '나혼산' PD와 신규 예능…'태어난 김에 세계일주' 론칭 # 김보겸의 일본in 기시다-구로다 갈등에 28조원 태웠지만…여전한 엔저 # 반갑다 우리말⑪ 네이버는 왜 15년째 한글 운동 펼칠까 # 지자체장에게 듣는다 박강수 "기피시설 몰린 마포에 소각장 발상 자체가 잘못" # 경찰人 ‘비긴급 민원신고’ 182…“원스톱 처리율 80% 이상” 연예 ‘마약 무혐의’ 이상보 “병원검사 음성인데 실명 보도돼…억울함 더 없길” 배우 이상보가 지난달 30일 마약 투약 혐의에 대해 무혐의 처분을 받은 가운데 “앞선 언론 보도를 통해 ‘마약한 40대 배우’로 됐다”며 “억울함을 풀기 쉽지 않았다”고 밝혔다.배우 이상보 (사진=KBS)이상보는 4일 CBS 라디오 ‘김현정의 뉴스쇼’와의 인터뷰에서 ... 믿보 작감→이다희·최시원 절친 케미…'얼어죽을 연애따위' 관전포인트 ‘얼어죽을 연애따위’[이데일리 스타in 김가영 기자] ‘얼어죽을 연애따위’가 대망의 첫 방송을 하루 앞두고, 핵심 관전 포인트 세 가지를 공개했다.오는 10월 5일 첫 방송 되는 ENA 새 수목드라마 ‘얼어죽을 연애따위’(극본 김솔지 연출 최규식 기획 KT스튜디오지니 ... 스포츠 한국, 美 매체 선정 '카타르 월드컵 파워 랭킹' 19위 유지 한국 축구대표팀이 미국 매체 CBS가 선정하는 2022 카타르 월드컵 파워 랭킹에서 19위를 유지했다. 한국이 속한 H조 중 3번째다.27일 오후 서울 마포구 서울월드컵경기장에서 열린 한국 대 카메룬 축구 대표팀의 평가전에서 1-0으로 승리한 한국 선수들이 관중을 향... 제네시스 챔피언십 6일 개막…경기 보고 미슐랭 맛집 미리 즐길까 2021년 제네시스 챔피언십에서 우승한 이재경이 부상으로 받은 자동차 앞에서 우승트로피를 번쩍 들어 올리고 있다. (사진=이데일리DB)[이데일리 스타in 주영로 기자]‘직관이 대세.’국내 프로골프의 문화가 변하고 있다. 대회 현장을 찾아 경기를 관전하고 선수를 응원하는... 두근두근 핫포토더보기 오늘의 '세 컷' ; '눈물 글썽' 은퇴식 ; 출근길 '마비' ; 이동의 즐거움더보기 무한한 역동성 지닌 국내 최초 스포츠유틸리티쿠페[신민준의 Car네임] [누구차]'로코퀸' 박민영이 모는 수억원대 최고급 차는? 현대글로비스, 美 현지 경매업체 인수…"중고차 사업 글로벌로 확대" 현대모비스, '5G+V2X' 통합솔루션…"미래 먹거리 확보" 빨간불·노란불…자동차 경고등은 어떤 의미인가요?[궁즉답] 어디로 떠날까더보기 한국인은 몰랐던 세부의 진짜 속살을 엿보다 보홀이 세부보다 더 예쁘고 낭만적인 이유 바다 더하기 산과 밀림…신이 편애한 세부&amp;보홀[여행] 미술관 옆 도서관 [200자 책꽂이]통찰의 시간 외 [200자 책꽂이]상속 외 [e갤러리] 나무 몇그루 짊어지고 하산…이현호 '나무, 나무' [e갤러리] 색, 50여년 뒤엉킨 감정의 응축…국대호 'S2022D1002' [이주헌의 혁신@미술]&lt;20&gt; 돈에 눈뜬 미술…'비즈니스 코치 시대' 열다 기자뉴스룸더보기 ‘마약 무혐의’ 이상보 “병원검사 음성인데 실명 보도돼…억울함 더 없길” 尹발언 풍자한 BBC…이준석 "어떻게 해석해도 망했다" 신보, 삼성중공업 협력업체 4곳에 65억원 보증지원 [포토]이주호 사회부총리 후보자, 인사청문회 사무실 출근 [국감]이상민 장관 "일잘하는 정부, 함께 잘사는 안전한 나라 완성" 지금 뜨고 있는 뉴스 한달 570만원 버는 '리치 싱글', 절반은 저축한다 前 마약 중독자가 돈스파이크에 놀란 이유…"그럴 몸 아닌데" ‘학원비만 2500만원’..꿈 포기하는 로스쿨 지망생들 조종석엔 김건희..고등학생이 그린 '윤석열차' '빗속 뚫고' 전광훈, 3만명 집회…도로마비로 시민 '눈살' 2022년 10월 4일 오늘의 운세 Today Photo [포토]민주당, '윤석열정권 정치탄압대책위원회 기자회견' [포토]민주당, '윤석열 정부가 노리는 것은 결국 문재인 전 대통령' [포토]'윤석열 정부가 노리는 것은 결국 문재인 전 대통령' [포토]민주당, '감사원 文 조사 통보...감사권 남용' [포토]'개천절 경축식 참석하는 한덕수-이상민' [포토]개천절 경축식, 경축사하는 한덕수' [포토]개천절 경축식, '대화하는 정진석-이재명' [포토]'개천절 경축식' [포토]고위당정협의회 참석하는 한덕수 [포토]'고위당정협의회 개최' [포토]'고위당정협의회 참석한 김대기-한덕수-정진석' [포토]고위당정협의회, '대화하는 한덕수-김대기-정진석' [포토]코로나19 신규확진자 1만2150명, '월요일 기준 13주만에 최저' [포토]코로나19 신규확진자 1만2150명 [포토]코로나19 신규확진자 1만명대 [포토]신규확진자 1만명대, '한산해진 선별진료소' [포토]'국정감사 D-1' [포토]'내일부터 국정감사 시작' [포토]'국회 국정감사 준비' [포토]'하루 앞으로 다가온 국정감사' 알립니다 2022년 하반기 경력기자 모집 뉴스레터를 신청하세요 확인 IR 멤버스 - 삼성증권, 글로벌 실전투자대회 ‘G6 투자 챌린지’ 진행 - [머니팁]나의 금융상식 점수는? 한화투자증권 온라인 테스트 이벤트 - CJ온스타일, DIA TV 파트너 크리에이터와 신규 PB·신상품 론칭 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
-  </si>
-  <si>
-    <t>제주도, 농어촌 체험마을 관광 활성화 팔 걷었다 &lt; 제주 &lt; 전국 &lt; 기사본문 - 한국농어민신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 홈 전체기사 facebook kakao twitter 로그인 회원가입 구독신청 서울 Y 16℃ 미세먼지 좋음 경기 H 19℃ 미세먼지 좋음 인천 Y 18℃ 미세먼지 좋음 광주 R 19℃ 미세먼지 좋음 대전 R 20℃ 미세먼지 좋음 대구 R 23℃ 미세먼지 좋음 울산 H 26℃ 미세먼지 좋음 부산 H 25℃ 미세먼지 좋음 강원 H 21℃ 미세먼지 좋음 충북 R 19℃ 미세먼지 좋음 충남 R 20℃ 미세먼지 좋음 전북 R 19℃ 미세먼지 좋음 전남 R 19℃ 미세먼지 좋음 경북 R 23℃ 미세먼지 좋음 경남 R 25℃ 미세먼지 좋음 제주 R 22℃ 미세먼지 좋음 세종 R 20℃ 미세먼지 좋음 전체메뉴 버튼 #물가 확대경 ‘물가관리’ 덫에 걸린 참깨…산지 생산기반 또 흔든다 대형마트 주요 농축산물 가격 ‘천차만별’ 정황근 장관 ‘물가 점검’ 현장 행보 정부, 생활·밥상 물가 잡기에 총력전 [품목포커스/양배추] 출하 줄었는데 수요 증가 ‘고공행진’ "치킨값 상승, 닭고기 가격 때문 아니다" 수확철 앞둔 수박 산지, 출하물량 부족에 ‘뒤숭숭’…“강세도 달갑잖아” [품목포커스/참외] 출하 물량 지난해보다 15~20% 줄어 ‘시세 양호’ [품목포커스/토마토] 이달 중순 이후 출하 몰려 약세 전망 [품목포커스/오이] 외식 수요 증가로 소비 확대 기대 “양파 가격 회복 안 돼…추가 폐기 시행하라” 옥수수 가격 1년새 두 배…천정부지 사룟값에 농가·업체 ‘죽을 맛’ #연재 계절근로자 유치·관리, ‘전문기관’ 위탁…지자체 부담 줄인다 “CPTPP 경제효과 거의 없고, 농업분야 타격 매우 클 것” “외국인 근로자 ‘이민농’으로 육성…지방소멸·인력난 대응” 농어촌공사, 농지 환매차익 ‘1824억’ 거뒀다 경북 영주, ASF 첫 발생…야생멧돼지 2마리 감염 계속되는 ASF…농가 피로도 높아 강원 양구서 ASF 3개월 만에 발생…한덕수 총리 “초동방역에 만전” ASF 주범 ‘멧돼지 감축정책’ 부실 ‘고용허가’ 외국인 근로자 5만명 대기…“입국절차 간소화” 주문 “고향사랑기부금, 답례품에 함몰되지 말아야” 케어사이드 “ASF 백신 후보주, 안전성·방어능 확인” “CPTPP 가입 땐 중국인삼 ‘한국산’ 표시 가능해져” 오피니언 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 농촌 2030 문광운의 화풍정(火風鼎) 농정 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 유통정책 유통현장 유통정보 업계소식 축산 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 전국 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 식품 식품정책 식품산업 식품기술 인삼ㆍ특용작물 수산 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 수출 수출정책 수출현장 해외시장정보 여성 정책 기관ㆍ단체 다문화 여성현장 농촌女담 농어민TV 검색 상세검색 검색 검색닫기 기사검색 검색 저장된 검색어가 없습니다. 키워드 제거 인기 검색어 1. 가을 2. 샤인머스켓 3. 교육 4. 밀키트 5. 한우가격 6. 농협사료 7. 반려식물 8. 한우 9. 돼지 10. 마늘 많이 본 기사 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 쌀 45만톤 격리…“역대 최대물량, 시장 분위기 반전 기대” [한국후계농업경영인강원도대회] “농업발전 책임지는 핵심리더…농업·농촌 재도약 이룩” 전국은 가을꽃 축제 한창 ‘금배추’ 호들갑, 이제 그만 [한국농어민신문] 언론과 물가당국의 ‘배추 때리기’가 도를 넘고 있다. 언론은 연일 ‘금배추’ ‘배추값 폭등’ ‘김장철 비상’과 같은 자극적 보도를 쏟아내고, 이에 맞춰 물가당국은... “외국인 근로자 고용제도 보완…농산물 가격 잡기식 물가대책 손봐야” 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 [분석] 중앙회장 연임 허용·선거 일정 변경…‘수협법 개정’ 이목 쏠려 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 대한산란계협회 창립…“단합된 힘으로 위기 극복” 본문영역 이전 기사보기 다음 기사보기 제주도, 농어촌 체험마을 관광 활성화 팔 걷었다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 농어촌 체험마을 관광 활성화 팔 걷었다 기자명 강재남 기자 승인 2016.05.10 09:05 신문 2815호(2016.05.13) 12면 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 기사스크랩하기 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 이 기사를 공유합니다 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도가 농어촌 체험마을 관광활성화를 위한 프로젝트를 추진한다.도는 농어촌 관광 활성화를 위해 ‘전국 최고 농어촌 체험휴양마을 사무장 되기 프로젝트’를 추진, 농림축산식품부와 협업을 통한 중앙·지방간 협력사업을 진행한다고 밝혔다.‘전국 최고 농어촌체험휴양마을 사무장 되기 프로젝트’는 ‘잘살고 즐거운 체험마을, 우리가 해봅주’라는 슬로건 아래 조직구성능력, 실무능력, 체험능력을 향상 시킬 수 있는 교육프로그램으로 이 달부터 오는 11월까지 총 6회에 걸쳐 회계·노무·세무, 사업기획·홍보기획안 작성, 보조금 관리 및 정산, 홈페이지 관리, 등급 결정 심사, 위생 및 안전관리 등 체험휴양마을의 실질적인 실무능력을 위한 교육을 중심으로 진행된다.또한 체험휴양마을간 교차 체험 및 우수교육농장체험, 우수 관광농원 체험 등을 통해 체험프로그램 운영능력을 향상시키고 새로운 체험프로그램 개발을 위한 기초자료도 제공한다.도는 이번 프로젝트를 통해 행정과 마을간 서로 소통하는 시간을 마련함은 물론 프로그램에 대한 당일 평가 및 향후 공동 토론을 추진할 예정이다.이와 함께, 농식품부와 협업을 통해 추진하는 중앙·지방간 협력사업은 공동홍보, 외국인 대상 교통·통역서비스 공동 제공, 농촌마을 연계 관광상품개발 등이다.공동홍보는 농촌관광 스탬프 투어, 농촌관광 외국어 홈페이지 구축, SNS홍보, AirBNB에 우수 농촌 숙박시설 등재 등을 중심으로 진행된다.이 외에도 외국인 개별여행객을 대상으로 체험휴양마을과 연계한 외국인 대상 교통·통역서비스 제공, 민간여행사 대상 제주 농촌마을 연계 관광상품 공모 등이 추진된다.양한식 지역균형발전과장은 “중앙부처와 지자체간 협업을 통해 사업 효과를 극대화시킴으로써 농어촌관광활성화 및 제주의 농어촌을 알리는 계기가 될 것으로 기대하고 있다”고 말했다.제주=강재남 기자 kangjn@agrinet.co.kr 강재남 기자 kangjn@agrinet.co.kr 기자 프로필 보기 저작권자 © 한국농어민신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 쌀 45만톤 격리…“역대 최대물량, 시장 분위기 반전 기대” [한국후계농업경영인강원도대회] “농업발전 책임지는 핵심리더…농업·농촌 재도약 이룩” 전국은 가을꽃 축제 한창 ‘금배추’ 호들갑, 이제 그만 “외국인 근로자 고용제도 보완…농산물 가격 잡기식 물가대책 손봐야” 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 남원 춘향골농협 농업인행복버스 빵빵~ 농관원, 농약 유통관리업무 이관준비 ‘착착’ 양곡관리법 논란 유감 4분기 곡물 수입가격 안정세…환율 급등 변수 [기고] 주요 병해충 친환경방제제 개발 필요성 산림청, 임업인 지원 예산 아랫돌 빼서 윗돌 괴기? 전국 인기뉴스 전체 인기뉴스 1 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 2 “벼 우선지급금, 지난해 가격으로 동결하라” 3 노동력 적고 맛 좋은 사과 ‘시나노골드·감홍’ 미래 유망 4 모바일통합마케팅 전문기업 ‘모바일이앤엠애드’ 서울형 강소기업 선정 5 “액상멀칭, 비닐 대비 경영비 66% 절감” 1 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 2 전국은 가을꽃 축제 한창 3 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 4 쌀 대책 현장 반응은ㅣ“쌀값 하락세 멈출 것” “수확기 시그널 시의적절”…지역농협·RPC 긍정적 5 [기자수첩] 금배추 논란, 진짜 중요한 것은 사진뉴스 전국은 가을꽃 축제 한창 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 다가오는 가을…철원평야 수놓은 황금빛 물결 ‘쌀가루’로 뽐내는 베이킹 실력 하단영역 매체정보 대표전화 : 02-3434-9000 팩스 : 02-3434-9077 홈페이지 관련 불편·건의사항 : webmaster@agrinet.co.kr 서울시 송파구 중대로9길 60 (인터넷광고 : 02-3434-9023 / 신문광고 : 02-3434-9011 / 구독문의 : 02-3434-9004) 신문등록번호 : 서울 아 03463 등록일 : 2014-12-05 발행일 : 2014-12-05 발행·편집인 : 이학구 청소년보호책임자 : 이학구 Copyright © 2022 한국농어민신문. All rights reserved. mail to webmaster@agrinet.co.kr 하단메뉴 매체소개 기자소개 구독신청 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 농정 전체 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 전체 유통정책 유통현장 유통정보 업계소식 식품 전체 식품정책 식품산업 식품기술 인삼ㆍ특용작물 축산 전체 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 전체 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 친환경 전체 정책 생산ㆍ유통 친환경농자재 수출 전체 수출정책 수출현장 해외시장정보 전국 전체 농촌관광 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 수산 전체 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 렌즈 속 농어민 여성 전체 정책 기관ㆍ단체 다문화 여성현장 농촌女담 사람들 기획 오피니언 전체 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 오피니언 기고 정문기 칼럼 농훈칼럼 농어민만평 농촌 2030, 그들이 사는 법 문광운의 화풍정(火風鼎) 윤병선 칼럼 책 속의 한 줄 지역사회 의료이야기 테마 전체 농촌&amp;도시 귀농&amp;귀촌 교육&amp;문화 농업경영인 로컬푸드 건강&amp;생활 사진뉴스 전체 #렌즈 속 농어민 농어민TV 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 '폭설·강풍' 기상악화 빈번…공항에 발 묶이는 관광객 수 급증 검색 2022-10-04 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 제주도 '폭설·강풍' 기상악화 빈번…공항에 발 묶이는 관광객 수 급증 2016-05-04 09:54:48 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - 결항으로 인한 체류객 28만2000여명 추정 [미디어펜=온라인뉴스팀 기자] 제주시에 폭설과 강풍 등 기상악화가 번번히 일어나면서 대규모 결항사태가 발생해 제주공항에 발이 묶이는 관광객의 수가 급증했다. 4일 한국공항공사에 따르면 올해 제주공항에서 기상 악화로 1월 988편, 2월 119편, 3월 21편 등 총 1128편이 결항했다. 하루평균 12편 남짓 결항한 셈. 결항으로 인한 체류객은 예약 기준으로 봤을 때 28만2000여명으로 추정된다. ▲ 제주시에 폭설과 강풍 등 기상악화가 번번히 일어나면서 대규모 결항사태가 발생해 제주공항에 발이 묶이는 관광객의 수가 급증했다./미디어펜 1월∼3월에 기상악화로 결항한 2015년 30편, 2014년 52편, 2013년 78편, 2012년 58편, 2011년 55편이 결항됐다. 2011년∼2015년 5년간 같은 기간에 기상악화로 결항한 총 273편을 무려 4배 이상이다.지난 1월 23일~25일 전국적 기습 한파로 제주공항 활주로가 사상 처음으로 2박 3일간 장기 폐쇄돼 모두 900편이 넘는 항공편이 운항이 중지됐다. 활주로를 치울새 없이 계속 눈이 내렸기 때문이다. 눈이 그쳐도 제설장비를 제대로 갖추지 못했던 제주공항의 한계와 연일 이어진 윈드시어(난기류) 경보로 운항재개 시기도 늦춰졌다.한파에 갇힌 체류객만 약 9만 여명이었다. 제주도와 한국공항공사 제주본부, 제주지방항공청은 체류객 지원대책이 허술해 호된 질책을 받았다. 현재는 4단계(관심·주의·경계·심각)의 체계적인 체류객 관리 통합 메뉴얼을 만들어 시행하고 있다.한파가 지났더니 태풍급 강풍이 몰아쳤다. 풍향과 풍속 차이에 의한 윈드시어(난기류) 특보로 무더기 결항사태가 이어졌다. ‘폭설 대란’이 발생한 지 16일 만인 2월 26일과 지난달 16일, 이달 2일 등 세 차례나 강풍과 난기류에 속수무책으로 많은 항공기가 멈춰 섰다.저비용항공사가 대거 제주 기점 노선에 항공기를 투입하면서 늘어난 항공편수도 결항편을 늘렸다. 제주기점 노선은 항공업계에서는 '수요가 공급을 따라간다'는 말이 나올 정도로 항공편만 추가하면 이용객들이 몰리고 있는 상황이다. 1월∼3월 제주기점 항공편수는 2012년 2만7730편, 2013년 2만8238편, 2014년 2만9978편, 2015년 3만6404편, 2016년 4만566편 등으로 해마다 10％ 안팎으로 증가하고 있다. 한편 올해 1∼3월 제주공항 기상 악화 외에 결항 원인은 연결편 163편, 여객처리 119편, 정비문제 31편 등의 순으로 나타났다.[미디어펜=온라인뉴스팀 기자] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
-  </si>
-  <si>
-    <t>쌍방울, 中 중발그룹ㆍ뉴화청여행사와 제주도 부동산 및 관광 사업 추진 - 이투데이 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 금융·증권 일반 쌍방울, 中 중발그룹ㆍ뉴화청여행사와 제주도 부동산 및 관광 사업 추진 입력 2016-05-27 08:34 수정 2016-05-27 10:08 제주=송영록 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 쌍방울과 광림이 중국 대기업과 손잡고 제주에서 부동산 및 관광 개발 사업 등 신사업을 추진한다. 쌍방울은 지난 26일 제11회 제주포럼이 열리는 제주컨벤션센터 3층(한라홀)에서 중국 중발그룹, 산업통상자원부 산하 한중지역경제회와 3자 간의 업무협력을 위한 양해각서(MOU)를 체결했다.또 이날 쌍방울은 광림과 함께 중국 관광객의 한국 유치를 주력하는 뉴화청국제여행사 그룹과도 양해각서를 체결, 사업 협력을 약속했다.협약식에는 중발그룹 대호 대표, 쌍방울 양선길 대표, 한중지역경제협회 이상기 회장, 우성덕 뉴화청국제여행사 대표가 참석했다.쌍방울과 중발그룹, 한중지역경제협회는 제주도 특산품을 중국 지역에 유통하고 제주도에 중국 기업들의 인센티브 관광을 유치하기로 했다. 질적인 성장과 함께 건전한 투자 유치의 일환으로 수익에 대한 사회 환원을 공동으로 진행하기로 했다.중발그룹은 1997년 북경에서 창립했으며, 현재는 중국 전역으로 규모를 확대한 민영기업이다. 주력 사업은 금융, 건강, 문화관광 3개 분야다. 지난해 말 기준 총자산은 2000억 위안(약 35조원), 임직원은 6만명이다. 2010년부터는 연속 6년간 중국민영기업 500강에 이름을 올렸다.쌍방울은 제주도 지역의 건강, 힐링, 실버산업이 가능한 신규 부동산 개발 사업을 추진하고 있으며, 중발그룹 역시 건강과 관광 및 부동산 사업을 영위하고 있다.한중지역경제협회 이상기 회장은 “중발그룹과 쌍방울이 추진하고자 하는 사업이 시너지효과 가능성이 크며, 제주도 지역에서의 부동산 사업을 함께 추진할 수 있도록 지원할 계획”이라고 밝혔다.이어 광림과 쌍방울은 뉴화청국제여행사 그룹과 제조, 유통, 여행, 숙박, 면세점 사업 등에 관한 협력을 맺었다.중국 관광객의 한국 유치를 주력으로 하는 뉴화청국제여행사는 2013년 41만명, 2014년 98만9000명, 메르스 사태가 발생한 지난해에도 65만명을 유치했다, 올해는 100만명을 목표로 하고 있다. 2011년부터는 전세기도 운영하고 있다.제주도는 도내 중국인 관광객 시장의 80~90%를 중국계 여행사가 유치하고 있으며, 그 중 90%를 뉴화청국제여행사가 차지하고 있다. 이번 양해각서 체결은 쌍방울이 신성장 사업으로 검토하고 있는 부동산 개발 관련 사업에도 매우 긍정적인 효과가 있을 것으로 회사 측은 기대했다.쌍방울 관계자는 “1분기 SBW호텔 법인 지분을 투자하는 등 호텔 및 부동산 사업에 노력을 기울이고 있으며, 화청그룹의 인바운드 능력은 쌍방울이 하고자 하는 신사업에 시너지 효과가 발생할 것으로 예상한다“고 밝혔다. #쌍방울 #광림 #쌍방울 #광림 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 10 [상보] 뉴욕증시, 영국발 훈풍·국채금리 진정에 상승...다우 2.66%↑ 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 금융·증권 최신 뉴스 [특징주] 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 [이시각 상한가] 오픈엣지테크놀로지(▲3150) - 4일 오전 10시10분 공모주 청약일정 한눈에…미래에셋증권, ‘공모주 투자플래너’ 서비스 오픈 삼성증권, ‘상금 8000만원’ 글로벌 실전투자대회 ‘G6 투자 챌린지’ 개최 [테마 리포트]바이오시밀러 관련주 테마 상승세(+5.02%) [테마 리포트]방위산업 관련주 테마 상승세(+5.01%) [Bit코인] 비트코인, 1만9000달러 방어 성공…“2만 달러 돌파 관건” [특징주] 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 신한은행, 채무조정 프로그램 신설ㆍ가계채무조정 확대 [특징주] 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 09:56 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.에이프로젠제약 62 3.KR모터스 79 4.일진홀딩스 480 5.디아이씨 365 1.라닉스 1,520 2.오픈엣지테크놀로지 2,400 3.칩스앤미디어 3,100 4.오토앤 2,150 5.유안타제7호스팩 680 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,174,000 +1.24% 이더리움 1,906,000 +1.93% 비트코인 캐시 167,000 -0.36% 리플 657 -0.39% 위믹스 2,585 +1.57% 에이다 613.3 -0.08% 이오스 1,694 -0.35% 트론 88.06 -0.96% 스텔라루멘 166.8 -4.41% 비트코인에스브이 69,450 -0.5% 체인링크 10,660 +2.7% 샌드박스 1,193 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>제주도관광협회 나눔봉사단, 보육원 어린이 체험학습 지원 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 나눔봉사단, 보육원 어린이 체험학습 지원 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 나눔봉사단, 보육원 어린이 체험학습 지원 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.05.07 23:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 7일 제주보육원 어린이들과 함께 제주유리박물관 유리체험 학습을 지원하는 한편, 소정의 기념품도 전달했다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 인근 ‘더바른’ 아파텔 분양 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-04 10:05 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 제주도 중문관광단지 인근 ‘더바른’ 아파텔 분양 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 제주도 중문관광단지 인근 ‘더바른’ 아파텔 분양 이경옥 기자 승인 2016.05.11 09:40 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 더바른 투시도. [국토일보 이경옥 기자] 제주도 중문관광단지 인근에 위치한 ‘더바른’ 아파텔이 분양 중에 있다. 이곳은 총 80실로 전용 61.95㎡ 48실과 35.65㎡ 32실의 2개 단지로 구성될 예정이다.서귀포시는 2025년 개항을 목표로 한 ‘제2 신공항’ 개발이 진행 중으로 완공 시 약 2조764억원에 이르는 경제효과가 나타날 것으로 예상되며, 이로 인한 주변지역의 부가가치는 더욱 높아질 전망이다.이외에도 서귀포시 중문지역은 제주도의 대표 관광지로 유명한 천제연폭포, 여미지식물원을 비롯해 10개 이상의 숙박시설, 골프장 등이 조성돼 있어 중국인 투자자는 물론 국내 투자자들의 선호 투자처로 떠오르고 있는 곳이다.그 중 제주도 서귀포시 중문 일대에 들어서는 ‘더바른’은 70%의 높은 전용률과 1:1 주차공간 확보, 1층 필로티 설계 덕에 휴양단지로서의 조건을 갖추고 있다는 평이다.또한 풀 빌트인 시스템으로 에어컨, 드럼세탁기, 냉장고, 제습기 등이 갖춰져 있으며, 3bay 구조로 개방감을 극대화해 거실은 물론 모든 방에서 바다를 조망할 수 있다.단지 인근에 위치한 체육센터, 중문 초, 중학교 및 대형마트, 제주 국제컨벤션센터 등 다양한 생활편의시설은 입주민의 편리함을 증진시키는 동시에 교육 및 문화생활을 가능하다.2017년 1월 준공 예정이며, 아시아신탁 및 하이스트 종합건설에서 시공, 현재 계약금 500만원 정액제 및 중도금 60% 무이자 혜택 등을 제공하고 있다.홍보관은 서귀포시 중문동 1920-1번지 중문로터리 2층에 위치한다.이경옥 기자 kolee@ikld.kr 저작권자 © 국토일보 무단전재 및 재배포 금지 이경옥 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1롯데건설, ‘창원 롯데캐슬 하버팰리스’ 분양 2계양구에 시세보다 저렴한 아파트 ‘인천 작전 한라비발디’ 본격 분양 3구미국가산업단지 품은 핵심 배후주거지 'e편한세상 구미상모 트리베뉴' 주목 4휴스틸, 상반기 영업이익 1천억원 달성에 이어 과감한 승부수 던져 5만점입지에 낮은 분양가 'e편한세상 사천 스카이마리나' 호평 6우미건설, 10월 '음성 우미린 풀하우스' 분양 앞두고 '우미린 카페' 운영 7대우 vs 롯데, 한남2구역 재개발 한판승부 8매탄동 동남빌라 재건축지역주택조합, 창립총회 개최 9[심층취재] 건축자재 화재 안전성능 검증제도 현실성 결여 ‘문제’ 10첨단 기술력 갖춘 스마트홈 '더샵 군산프리미엘' 본격 분양개시 최신기사 “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” “국토교통부 산하 공공기관 2천명 감축… 대부분 무기직으로 생색내기다” SRT 부정승차 방지 위한 특별 기동검표 강화 현대건설-인천항만공사, ESG 경영 공동추진 업무 협약 체결 현대건설-인천항만공사, ESG 경영 공동추진 업무 협약 체결 포스코건설, 신반포 청구아파트 리모델링 사업 수주 포스코건설, 신반포 청구아파트 리모델링 사업 수주 유경준 의원, LH 수요예측 실패… ‘분양·임대주택 청약미달’ 지적 유경준 의원, LH 수요예측 실패… ‘분양·임대주택 청약미달’ 지적 ‘시화 MTV 디아티크’ 이달 분양 ‘시화 MTV 디아티크’ 이달 분양 중도금 전액 무이자 혜택… 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 중도금 전액 무이자 혜택… 현대ENG '힐스테이트 과천 디센트로' 선착순 분양 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
+    <t>이필구 경기도의원, 제주도서 '道 관광활성화 연찬회' - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 이필구 경기도의원, 제주도서 '道 관광활성화 연찬회' 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 정치 경기 이필구 경기도의원, 제주도서 '道 관광활성화 연찬회' 문완태 승인 2016.05.30 00:05 수정 2016.05.29 17:56 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × ▲ 경기도의회 문화체육관광위원회 이필구 의원이 지난 24일부터 제주도 일원서 2박3일간의 일정으로 경기도 관광활성화 방안을 모색하기 위한 연찬회를 개최했다. 이날 연찬회 참석자들이 파이팅을 외치고 있다. /사진제공=경기도의회 경기도의회 문화체육관광위원회 이필구(더민주·부천8)의원은 지난 24일부터 26일까지 2박3일간의 일정으로 제주도 일원에서 경기도 관광활성화 방안 모색을 위한 연찬회를 개최했다고 29일 밝혔다. 일정 첫째 날 위원들은 제주대학교 양진건 교수와 함께 '제주도 유배문화'에 대한 강연을 듣고 제주도 역사와 문화에 대해 학습했으며, 내실 있는 2015회계연도 결산을 위한 위원 간 토론 시간을 가졌다. 둘째 날은 제주도에서도 현재 핫이슈 지역으로 부상하고 있는 제2의 남이섬 '탐나라 공화국' 조성 현장을 둘러봤다. 이곳은 현재의 남이섬을 만든 강우현 전 대표가 조성하고 있는 곳으로 제주도의 관광명소로 예상되는 곳이기도 하다. 셋째 날은 우도를 방문해 많은 관광객이 찾는 관광명소를 벤치마킹하고, 경기관광의 경쟁력 강화를 위한 토론 시간을 끝으로 일정을 마무리 했다. 이필구 위원장은 "제주도가 많은 관광자원 개발로 자연훼손이 심각한데, 탐나라 공화국과 같이 환경은 보전하면서도 제주도의 수많은 관광 상품과의 차별화를 이룬 관광상품들이 경기도에도 많이 필요하다"고 강조했다. /문완태 기자 myt@incheonilbo.com 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 문완태 myt@incheonilbo.com [경기칼럼] 농촌어르신 삶의 활력 찾아드리자 '경기도의회사무처 공무원 철수' 다시 추진 도농기원 IT,BT 융복합 기술 전문가 초청세미나 개최 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '관광사업체 안전노동 교육' 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, '관광사업체 안전노동 교육' 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, '관광사업체 안전노동 교육' 실시 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.05.30 18:19 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 제주특별자치도인재개발원(원장 김영주)은 지난 27일 제주웰컴센터에서 '관광사업체 안전노동 교육'을 실시했다.도내 관광종사원 역량강화를 위한 교육의 일환으로 진행된 이번 교육은 여행사, 호텔, 관광지 등 도내 다양한 관광업종 임·직원들이 참석한 가운데 이뤄졌다.김동설 노무전문가를 초빙해 사내 안전의식 및 노무관리 환경개선을 위한 산업재해 이해와 예방법, 근로기준법, 근로계약서 작성법 등에 대한 이론과 실무지식을 교육했다.협회 관계자는 "이번 교육을 통해 노무법 등의 취지 및 내용을 이해함으로써 각각의 사업체 환경에 맞게 적용할 수 있는 역량으로 이어지길 바란다"며 "앞으로도 체계적인 교육 지원을 통해 도내 관광사업체의 경영능력 신장을 노력할 것"이라고 밝혔다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>쌍방울, 中 중발그룹·뉴화청여행사와 제주도 관광사업 추진 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 고용보험 가입자 증가세, 10개월만에 30만명대로 둔화 "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 고용보험 가입자 증가세, 10개월만에 30만명대로 둔화 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 쌍방울, 中 중발그룹·뉴화청여행사와 제주도 관광사업 추진 sns공유 더보기 쌍방울, 中 중발그룹·뉴화청여행사와 제주도 관광사업 추진 머니투데이 김건우 기자 기자 더보기 sns공유 더보기 VIEW 6,899 2016.05.26 19:18 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 MTIR sponsor 광림 (1,285원 ▼75 -5.51%)과 쌍방울 (393원 ▼23 -5.53%)이 중국 중발 그룹, 국내 중화권 여행사인 뉴화청국제여행사와 본격적인 관광 사업을 시작한다. 쌍방울은 26일 제주도 제주컨벤션센터에서 중발그룹, 한중지역경제협회와 3자간의 업무협력을 위한 양해각서(MOU)를 체결했다. 협약식에는 중발그룹 대호 대표, 쌍방울 양선길 대표, 한중지역경제협회 이상기 회장, 우성덕 뉴화청국제여행사 대표가 참석했다. 쌍방울과 중발그룹, 한중지역경제협회는 제주도 특산품을 중국 지역에 유통하고, 제주도에 중국 기업들의 인센티브 관광을 유치하기로 했다. 질적인 성장과 함께 건전한 투자 유치의 일환으로 수익에 대한 사회 환원을 공동으로 진행하기로 했다. 1997년 설립된 중발그룹은 금융, 건강, 문화관광 3개 사업으로 주력으로 한다. 지난해 말 기준 총 자산은 2000억 위안(약 35조원), 임직원은 6만명이다. 2010년부터는 연속 6년간 중국민영기업 500강에 이름을 올리고 있다. 쌍방울은 제주도 지역의 건강, 힐링, 실버산업이 가능한 신규 부동산 개발 사업을 추진하고 있으며, 중발그룹은 건강과 관광 및 부동산 사업을 영위하고 있어 시너지 효과가 기대된다. 또 쌍방울과 광림은 뉴화청국제여행사와 제조, 유통, 여행, 숙박, 면세점 사업 등에 관한 포괄적 협력을 약속했다. 뉴화청국제여행사는 2015년 65만명의 중국인 관광객을 유치한, 제주도 내 최대 중국 전문 여행사다. 이번 양해각서 체결은 쌍방울이 신성장 사업으로 검토하고 있는 부동산 개발 관련 사업에도 매우 긍정적인 효과가 있을 것이라고 회사 측은 설명했다. 특히 뉴화청국제여행사는 중소기업진흥공단 해외전시매장 위탁운영사 선정을 통해 중소기업 제품 소싱 능력을 보유하게 된 쌍방울과 협력하게 되면서, 과거 화청그룹이 추진하고자 했던 텍스리펀드사업(사후면세점) 진출이 유리해졌다. 쌍방울 관계자는 "1분기 SBW호텔 법인 지분을 투자하는 등 호텔 및 부동산 사업에 노력을 기울이고 있다"며 "화청그룹의 인바운드 능력은 쌍방울이 하고자 하는 신사업에 시너지 효과가 발생할 것으로 예상한다"고 말했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 김건우 jai@mt.co.kr 중견중소기업부 김건우 기자입니다. 스몰캡 종목을 중심으로, 차별화된 엔터산업과 중소가전 부문을 맡고 있습니다. 궁금한 회사 및 제보가 있으시면 언제든지 연락 주시기 바랍니다 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 원/달러 환율, 4거래일만에 1430원 재돌파 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 증권 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 '7000만→70억' 번 슈퍼개미 "지금이 기회, 주가 저평가" -73%, -66%, -55% 참혹한 카카오그룹株..또 자회사 상장 논란 카카오그룹株 '대폭락의 날'…-80% 개미들 "살려달라" 아우성 '깜깜이 공매도' 사라지나... 불법 공매도 세력 정보, 어디까지 공개 가능? 돌아온 줄 알았던 '남자의 주식' 흠슬라…HMM, 신저가 찍으며 추락 다시 시작된 유가의 공포…"110달러 찍는다" 암울한 전망도 "비싸다" 거침없는 SELL...韓 증시 흔드는 외국계 리포트 파워 '韓 반도체'만 '쑥' 오른다...5만전자·8만닉스 '찐 반등' 보일까 주가 71% 빠진 하이브, 또 신저가…"그래도 괜찮다"는 증권가, 왜 "카카오 또 무너지네" 그룹주 모조리 신저가…'반토막 목표가'도 등장 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 증권 마켓 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' '고용지표 호전→금리 인상→증시 부진'…악순환 속 시장은 '허우적' 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" "남자로 보였는데…" 신봉선, 10세 연상 지상렬과 '썸' 결말은? 공감 엄앵란, 8년 전 박수홍에 "경제 독립해"…친형 100억 횡령 예견? 비공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 비공감 '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 공감 이효리·이상순 저격한 전여옥 "재벌 못지 않다…꼭 카페 해야하나" 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 공감 김연아, 예비 시아버지 '정치성향'도 시끌…무슨 활동했길래 비공감 정유라 6년만의 근황 "깡으로 버텼다…조민이 불쌍하다니" 눈물 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>쌍방울, 中 중발그룹ㆍ뉴화청여행사와 제주도 부동산 및 관광 사업 추진 - 이투데이 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 금융·증권 일반 쌍방울, 中 중발그룹ㆍ뉴화청여행사와 제주도 부동산 및 관광 사업 추진 입력 2016-05-27 08:34 수정 2016-05-27 10:08 제주=송영록 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 쌍방울과 광림이 중국 대기업과 손잡고 제주에서 부동산 및 관광 개발 사업 등 신사업을 추진한다. 쌍방울은 지난 26일 제11회 제주포럼이 열리는 제주컨벤션센터 3층(한라홀)에서 중국 중발그룹, 산업통상자원부 산하 한중지역경제회와 3자 간의 업무협력을 위한 양해각서(MOU)를 체결했다.또 이날 쌍방울은 광림과 함께 중국 관광객의 한국 유치를 주력하는 뉴화청국제여행사 그룹과도 양해각서를 체결, 사업 협력을 약속했다.협약식에는 중발그룹 대호 대표, 쌍방울 양선길 대표, 한중지역경제협회 이상기 회장, 우성덕 뉴화청국제여행사 대표가 참석했다.쌍방울과 중발그룹, 한중지역경제협회는 제주도 특산품을 중국 지역에 유통하고 제주도에 중국 기업들의 인센티브 관광을 유치하기로 했다. 질적인 성장과 함께 건전한 투자 유치의 일환으로 수익에 대한 사회 환원을 공동으로 진행하기로 했다.중발그룹은 1997년 북경에서 창립했으며, 현재는 중국 전역으로 규모를 확대한 민영기업이다. 주력 사업은 금융, 건강, 문화관광 3개 분야다. 지난해 말 기준 총자산은 2000억 위안(약 35조원), 임직원은 6만명이다. 2010년부터는 연속 6년간 중국민영기업 500강에 이름을 올렸다.쌍방울은 제주도 지역의 건강, 힐링, 실버산업이 가능한 신규 부동산 개발 사업을 추진하고 있으며, 중발그룹 역시 건강과 관광 및 부동산 사업을 영위하고 있다.한중지역경제협회 이상기 회장은 “중발그룹과 쌍방울이 추진하고자 하는 사업이 시너지효과 가능성이 크며, 제주도 지역에서의 부동산 사업을 함께 추진할 수 있도록 지원할 계획”이라고 밝혔다.이어 광림과 쌍방울은 뉴화청국제여행사 그룹과 제조, 유통, 여행, 숙박, 면세점 사업 등에 관한 협력을 맺었다.중국 관광객의 한국 유치를 주력으로 하는 뉴화청국제여행사는 2013년 41만명, 2014년 98만9000명, 메르스 사태가 발생한 지난해에도 65만명을 유치했다, 올해는 100만명을 목표로 하고 있다. 2011년부터는 전세기도 운영하고 있다.제주도는 도내 중국인 관광객 시장의 80~90%를 중국계 여행사가 유치하고 있으며, 그 중 90%를 뉴화청국제여행사가 차지하고 있다. 이번 양해각서 체결은 쌍방울이 신성장 사업으로 검토하고 있는 부동산 개발 관련 사업에도 매우 긍정적인 효과가 있을 것으로 회사 측은 기대했다.쌍방울 관계자는 “1분기 SBW호텔 법인 지분을 투자하는 등 호텔 및 부동산 사업에 노력을 기울이고 있으며, 화청그룹의 인바운드 능력은 쌍방울이 하고자 하는 신사업에 시너지 효과가 발생할 것으로 예상한다“고 밝혔다. #쌍방울 #광림 #쌍방울 #광림 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 금융·증권 최신 뉴스 [공시] LS, KT서브마린 주식 약 404만주 취득…지분율 15.57% [조회공시] 한창, 2차전지 장비업체 인수 추진 보도 관련 [시황_정오] 코스닥 670.09p, 하락세 (▼28.4p, -4.07%) 지속 [시황_정오] 코스피 2180.53p, 하락세 (▼52.31p, -2.34%) 지속 [국감 핫이슈] 이복현 금감원장 “금투사 접대비, 현황 점검할 것” [공시] 현대삼호중공업, 3468억 규모 LNGC 1척 수주 "신규 서비스 이용하면 경품 드려요"…우리은행, 'WON에서 놀자!' 이벤트 실시 [국감 핫이슈] 구멍 뚫린 비대면 금융…이복현 "은행 보안 시스템 개선, 필요성 공감" [국감 핫이슈] 금감원, 외부 금융기관 수견직원 59명…"민원창구 변질 우려" [국감 핫이슈] 이복현 금감원장 “도이치모터스, 경찰 자료 요청 공문 없었다” 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '북적이는 2022 한국제약바이오 채용박람회' 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:54 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,450 3.베트남개발1 73 4.유니온머티리얼 350 5.STX 315 1.테라셈 22 2.코아스템 2,680 3.동국알앤에스 780 4.코디엠 124 5.SCI평가정보 725 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,380,000 -1.43% 이더리움 1,838,000 -2.75% 비트코인 캐시 159,100 -5.24% 리플 710 -6.26% 위믹스 2,403 -5.51% 에이다 567.1 -6.43% 이오스 1,483 -7.72% 트론 88.62 -0.47% 스텔라루멘 176.9 -3.12% 비트코인에스브이 67,900 -3.96% 체인링크 10,390 -5.11% 샌드박스 1,132 -5.35% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>м ңмЈјнҸ¬лҹј, м ңмЈјлҸ„-мҳӨнӮӨлӮҳмҷҖ-н•ҳмқҙлӮңм„ұ м—°кІ°н•ҳлҠ” н•ңмӨ‘мқј нҒ¬лЈЁмҰҲ кҙҖкҙ‘ м ңм•Ҳн•ҙ | м„ңмҡёPn м„ңмҡёмӢ л¬ё м„ңмҡёEye лӮҳмҡ°лүҙмҠӨ м„ңмҡёTV м„ңмҡёEn кіөмғқкіөмӮ¬ м„ңмҡёл§Ҳмј“ м„ңмҡёк°Өлҹ¬лҰ¬ нҸүнҷ”м—°кө¬мҶҢ м„ңмҡём»¬мІҳ лЎңк·ёмқё нҡҢмӣҗк°Җмһ… м—°н•©лүҙмҠӨ кё°кҙҖмһҘ Today м •мұ…лүҙмҠӨ л¶ҖмІҳлі„ мҶҢмӢқ кіөкіөкё°кҙҖ лӢЁмІҙмһҘ Today мһҗм№ҳлүҙмҠӨ м„ңмҡёмӢң мқҳм • кІҪкё°лҸ„ мқҳм • мҡ°лҰ¬м§Җм—ӯ мһҗлһ‘ ліјкұ°лҰ¬ мҰҗкёёкұ°лҰ¬ көҗмңЎ&amp;лқјмқҙн”„ кө¬мІӯмһҘ Today мқҳм • нҸ¬м»ӨмҠӨ кө¬м •лүҙмҠӨ мҡ°лҰ¬ кө¬ мһҗлһ‘ ліјкұ°лҰ¬ мҰҗкёёкұ°лҰ¬ көҗмңЎ&amp;лқјмқҙн”„ кі мӢңлүҙмҠӨ көӯк°Җм§Ғ мӢңн—ҳ мһҗкІ© мӢңн—ҳ н•©кІ© мҲҳкё° мұ„мҡ© м •ліҙ м§Җм—ӯлі„ лүҙмҠӨ м„ нғқ м „мІҙм„ңмҡёл¶ҖмӮ°лҢҖкө¬мқёмІңкҙ‘мЈјлҢҖм „мҡёмӮ°м„ёмў…кІҪкё°к°•мӣҗм¶©мІӯм „лқјкІҪмғҒм ңмЈј вҖҳнҷҚм–ҙ лҢҖм „вҖҷвҖҰ мөңлҢҖ мғқмӮ°м§Җ л– мҳӨлҘё м „л¶ҒлҸ„ нҠ№нҷ”мғҒ кіөмӮ¬ кҙҖкі„мһҗл“Ө вҖңн•ңл°Ө нҢҢмҮ„м„қ 500t мҡҙл°ҳвҖқ мҠӨм№ҙмқҙм№ мӢӯмқҙ вҖңкёҲмӢңмҙҲл¬ё, л§җлҸ„ м•Ҳ лҗңлӢӨвҖқ мқёмІңкіөн•ӯкіөмӮ¬ вҖңмӮ¬мӢӨ нҷ•мқё л•җ лІ•м Ғ мЎ°м№ҳвҖқ мҪ”лЎңлӮҳлЎң м§Җм№ң мЈјлҜјл“Ө мқјмғҒ лӢӨмӢң м°ҫм•„ мӨҖ м„ңмҙҲ нҸүк·  27.9л…„вҖҰ л¶ҖмІҳлі„ мөңлҢҖ 13л…„ 11к°ңмӣ”м°Ё н–үліөлҸ„мӢңкұҙм„ӨмІӯ 17л…„ 4к°ңмӣ”лЎң к°ҖмһҘ л№Ёлқј м„ёмў…мӢң нҸүк·  17.6л…„вҖҰ м „лӮЁмқҖ 28.3л…„ кұёл Ө кө° л°©нҳёлІҪм—җ л§үнһҢ м ‘кІҪм§Җ мІ« мғҒмҡ© вҖҳмҲҳмҶҢм¶©м „мҶҢвҖҷ нҶөкі„мІӯ л°ңн‘ң вҖҳ2020 кі л №мһҗ нҶөкі„вҖҷ л¶„м„қ м ңмЈјнҸ¬лҹј, м ңмЈјлҸ„-мҳӨнӮӨлӮҳмҷҖ-н•ҳмқҙлӮңм„ұ м—°кІ°н•ҳлҠ” н•ңмӨ‘мқј нҒ¬лЈЁмҰҲ кҙҖкҙ‘ м ңм•Ҳн•ҙ мһ…л Ҙ : 2016-05-27 14:14 | мҲҳм • : 2016-05-27 14:14 м ңмЈјлҸ„мҷҖ мқјліё мҳӨнӮӨлӮҳмҷҖ, мӨ‘көӯ н•ҳмқҙлӮңм„ұмқ„ м—°кІ°н•ҳлҠ” нҒ¬лЈЁмҰҲ кҙҖкҙ‘мғҒн’Ҳмқ„ к°ңл°ңн•ҙм•ј н•ңлӢӨлҠ” мқҳкІ¬мқҙ м ңмӢңлҸј кҙҖмӢ¬мқ„ лҒҢкі  мһҲлӢӨ.м ңмЈјм—җм„ң м—ҙлҰ° м ңмЈјнҸ¬лҹј вҖҳлҸҷл¶Ғм•„мӢңм•„ кҙҖкҙ‘мӢңмһҘмқҳ мғҲ м§ҖнҸүвҖҷ м„ём…ҳм—җм„ң мқҙкі„нқ¬ кІҪнқ¬лҢҖ кҙҖкҙ‘н•ҷкіј көҗмҲҳлҠ” вҖңлҜёкөӯкіј мң лҹҪмқ„ кІЁлғҘн•ҙ н•ңмӨ‘мқј 3к°ңкөӯмқҙ кіөлҸҷ л§ҲмјҖнҢ…мқ„ нҶөн•ҙ кҙҖкҙ‘мғҒн’Ҳмқ„ к°ңл°ңн•ҙм•ј н•ңлӢӨвҖқл©° нҒ¬лЈЁмҰҲ кҙҖкҙ‘мқҳ мӨ‘мҡ”м„ұмқ„ к°•мЎ°н–ҲлӢӨ.мқҙ көҗмҲҳлҠ” вҖңм ңмЈјлҸ„мҷҖ мҳӨнӮӨлӮҳмҷҖ, н•ҳмқҙлӮңм„ұ л“ұ 3к°ңкөӯ м„¬мқ„ м—°кІ°н•ҳлҠ” нҒ¬лЈЁмҰҲ кҙҖкҙ‘мғҒн’Ҳмқҙ к°ңл°ңлҗҳл©ҙ н•ң лІҲм—җ 3к°ңкөӯмқ„ л°©л¬ён•  мҲҳ мһҲлӢӨлҠ” м җм—җм„ң м„ёкі„ к°ҒкөӯмңјлЎңл¶Җн„° л§ҺмқҖ кҙҖкҙ‘к°қмқ„ мң м№ҳн•  мҲҳ мһҲмқ„ кІғвҖқмқҙлқјкі  л§җн–ҲлӢӨ. лҳҗ вҖңн•ңмӨ‘мқј 3к°ңкөӯмқҖ лӮҙлҘҷмңјлЎң м—°кІ°лҗң лӮЁлҜёмҷҖ мң лҹҪ л“ұкіј лӢӨлҘҙкё° л•Ңл¬ём—җ 3к°ңкөӯ 3к°ңмқҳ м„¬мқ„ м—°кІ°н•ҳлҠ” нҒ¬лЈЁмҰҲ кҙҖкҙ‘мқҙ н•„мҡ”н•ҳлӢӨвҖқкі  м ңм•Ҳн–ҲлӢӨ. мқҙ көҗмҲҳлҠ” вҖңкіөлҸҷ л§ҲмјҖнҢ…мқ„ нҶөн•ҙ кҙҖкҙ‘мӮ°м—…мқ„ л°ңм „мӢңнӮӨл Өл©ҙ мһҘкё°м ҒмңјлЎң н•ңмӨ‘мқј 3к°ңкөӯмқҙ м°ём—¬н•ҳлҠ” м»ЁнҠёлЎӨнғҖмӣҢк°Җ мһҲм–ҙм•ј н•ңлӢӨвҖқкі  лҚ§л¶ҷмҳҖлӢӨ.мҳӨмқҙмӢң м—җмқҙм№ҳлЎң мқјліём •л¶ҖкҙҖкҙ‘көӯ н•ҙмҷёнҷҚліҙмӢӨмһҘмқҖ вҖңмқјліёмқ„ л°©л¬ён•ҳлҠ” нҒ¬лЈЁмҰҲ кҙҖкҙ‘к°қмқҖ л§Өл…„ нҒ° нҸӯмңјлЎң лҠҳкі  мһҲкі  мқјліё м •л¶ҖлҠ” 2015л…„ л°©л¬ён•ң нҒ¬лЈЁмҰҲ кҙҖкҙ‘к°қ 120л§ҢлӘ…мқ„ м•һмңјлЎң 500л§Ң лӘ… мқҙмғҒмңјлЎң лҠҳлҰ¬кі мһҗ л…ёл Ҙн•ҳкі  мһҲлӢӨ.вҖқкі  л°қнҳ”лӢӨ. мҳӨмқҙмӢң мӢӨмһҘмқҖ вҖңнҒ¬лЈЁмҰҲ кҙҖкҙ‘мқҖ м§Җм—ӯ мқјмһҗлҰ¬ м°Ҫм¶ңмқҖ л¬јлЎ  кІҪм ң нҷңм„ұнҷ”м—җ л§ҺмқҖ лҸ„мӣҖмқҙ лҗҳкі  мһҲлӢӨвҖқл©° вҖңн•ңмӨ‘мқј 3к°ңкөӯмқҙ нҒ¬лЈЁмҰҲмҷҖ м Җк°Җ н•ӯкіөмӮ¬лҘј лҠҳлҰ¬лҠ” л“ұ лҜёкөӯкіј мң лҹҪ л“ұ н•ҙмҷё кҙҖкҙ‘к°қмқ„ кІЁлғҘн•ң л§ҲмјҖнҢ…мқ„ м Ғк·№ м¶”м§„н•ҙм•ј н•ңлӢӨвҖқкі  к°•мЎ°н–ҲлӢӨ.к№Җм§„нҷң н•ңкөӯкҙҖкҙ‘кіөмӮ¬ н•ҙмҷёл§ҲмјҖнҢ…мӢӨмһҘлҸ„ вҖңлҜёкөӯкіј мң лҹҪ кҙҖкҙ‘к°қ мң м№ҳлҘј мң„н•ҙм„ңлҠ” мӣҗкұ°лҰ¬, кі л№„мҡ©мқҙлқјлҠ” м•Ҫм җмқ„ к·№ліөн•ҳкё° мң„н•ң н•ңмӨ‘мқј кіөлҸҷ л§ҲмјҖнҢ…мқҙ н•„мҡ”н•ҳлӢӨвҖқл©° вҖңнҷҚліҙ, кҙ‘кі , м—¬н–үмғҒн’Ҳ к°ңл°ң, нҢёнҲ¬м–ҙ л“ұмқ„ н•Ёк»ҳ м§„н–үн•ҳл©ҙ нҒ° лҸ„мӣҖмқҙ лҗ  кІғвҖқмқҙлқјкі  л§җн–ҲлӢӨ. к№Җ мӢӨмһҘмқҖ вҖңкіөлҸҷ л§ҲмјҖнҢ…мқҳ мқјнҷҳмңјлЎң 3к°ңкөӯм—җм„ң мһҗмң лЎӯкІҢ м—¬н–үн•ҳл©ҙм„ң мӮ¬мҡ©н•  мҲҳ мһҲлҠ” м„ л¶Ҳм№ҙл“ңлҘј л°ңн–үн•  н•„мҡ”к°Җ мһҲлӢӨвҖқкі  м ңм•Ҳн–ҲлӢӨ.м ңмЈј нҷ©кІҪк·ј кё°мһҗ kkhwang@seoul.co.kr м§Җл°©мһҗм№ҳ мөңмӢ  кё°мӮ¬ к°Җмқ„лӮ  м¶Өм¶”лҠ” м–өмғҲмқҳ н–Ҙм—°мңјлЎң вҖҳн–үліөм—¬н–үвҖҷ кө° л°©нҳёлІҪм—җ л§үнһҢ м ‘кІҪм§Җ мІ« мғҒмҡ© вҖҳмҲҳмҶҢм¶©м „ вҖҳнҷҚм–ҙ лҢҖм „вҖҷ нҺјміҗм§„лӢӨвҖҰ мөңлҢҖ мғқмӮ°м§Җ л– мҳӨлҘё к№Җнҳ„кё° м„ңмҡёмӢңмқҳнҡҢ мқҳмһҘ, м ң2нҡҢ мӨ‘м•ҷВ·м§Җл°©нҳ‘ мөңлҜјк·ң м„ңмҡёмӢңмқҳмӣҗ, лҸҷмһ‘кө¬ м„ұлӮЁкі л“ұн•ҷкөҗ к°җмӮ¬ м„ұлӮЁмӢңмқҳнҡҢ, м ң275нҡҢ м ң1м°Ё м •лЎҖнҡҢ к°ңнҡҢ л°•нҷҳнқ¬ м„ңмҡёмӢңмқҳмӣҗ, вҖҳм„ңмҡёмӢң мң л„ӨмҠӨмҪ” м„ёкі„мң м„ұн•ҙл Ё м„ұлӮЁмӢңмқҳмӣҗ вҖңвҖҳм„ұлӮЁнҳ•көҗмңЎм§ҖмӣҗлӢЁ м„ӨлҰҪ кҙ‘лӘ…мӢңмқҳнҡҢ, м–ҙлҰ°мқҙ м •мұ…м ңм•ҲмӢқ к°ңмөң 1445м„қ к·ңлӘЁ, көӯлӮҙ мөңкі  мҲҳмӨҖ л¶ҖмІңм•„нҠём„ј к№Җнҳ„кё° м„ңмҡёмӢңмқҳнҡҢ мқҳмһҘ, м ң2нҡҢ мӨ‘ мөңлҜјк·ң м„ңмҡёмӢңмқҳмӣҗ, лҸҷмһ‘кө¬ м„ұлӮЁкі л“ұ л°•нҷҳнқ¬ м„ңмҡёмӢңмқҳмӣҗ, вҖҳм„ңмҡёмӢң мң л„ӨмҠӨ мқҙлі‘мңӨ м„ңмҡёмӢңмқҳмӣҗ, м ң6лҢҖ м „л°ҳкё° мқҙмғҲлӮ  м„ңмҡёмӢңмқҳмӣҗ вҖңк°•лӮЁ нҺҳмҠӨнӢ°лІҢмқҙ кҙ‘лӘ…мӢңмқҳнҡҢ, мҳҲмӮ°кІ°мӮ° мӨ‘мҡ”м„ұ лӢҙмқҖ л°•м§„нқ¬ н•ҳлӮЁмӢңмқҳнҡҢ л¶ҖмқҳмһҘ, вҖңн•ҳлӮЁл¬ё н•ҳлӮЁмӢңмқҳнҡҢ мһҗм№ҳн–үм •мң„мӣҗнҡҢ, н–үм •мӮ¬л¬ҙ м—јмў…нҳ„ кІҪкё°лҸ„мқҳнҡҢ мқҳмһҘ, к№Җмў…ліҙ мҲҳ м—јмў…нҳ„ кІҪкё°лҸ„мқҳнҡҢ мқҳмһҘ вҖҳлӮЁм–‘мЈј м§Җ БҫЗХ БӨДЎ °жБҰ »зИё ЗаБӨ кІҪм°°лі‘мӣҗ нҮҙмӣҗВ·м§‘мІӯмҶҢк№Ңм§ҖвҖҰ мҶЎнҢҢн‘ң вҖҳлҸҢлҙ„вҖҷ мӮ¬нҡҢм Ғ н•©мқҳ м—ҶмқҙвҖҰ кІҪкё°лҸ„, лІ„мҠӨ мӨҖкіөмҳҒм ң 1300 мҶЎнҢҢ вҖңм°¬лһҖн•ң л°ұм ңл¬ёнҷ” лҠҗк»ҙ ліҙм„ёмҡ”вҖқ мҶЎнҢҢ нҳјмһҗ мӮ¬лҠ” мІӯл…„м—җкІҢ вҖҳмҳӨлЎҜмқҙвҖҷ вҖң19л…„м§ё л§Өмқј мғҲлІҪ мҳӨнҶ л°”мқҙлЎң мҲңм°° лҙүмӮ¬вҖқвҖҰ кҙҖм•… мұ… м“°лҠ” кө¬мІӯмһҘ, м§Җм—ӯ м–ҙлҰ°мқҙл“Өкіј вҖҳм„ұлҸҷ ESGвҖҷлҘј вҖңм„ёмў…лҢҖмҷ• нҶөнғ„н•  л…ёлҰҮвҖқ вҖҰ мҶЎлҸ„В·мІӯлқјВ·мҳҒмў… лҸ„лЎң лҒҠкІЁ мһҲлҚҳ к°•лӮЁ нғ„мІң мӮ°мұ…лЎң, к°•л‘‘ л№„нғҲкёё мҡ°нҡҢн•ҳлҠ” вҖҳм„ң к°җлҸ…вҖҷмқҳ н•ңм„ұл°ұм ңл¬ёнҷ”м ң 30л§ҢлӘ… мҰҗкІјлӢӨ мӢ кіөн•ӯкіј н•Ёк»ҳ лҢҖкө¬ нҺёмһ… мғҲ мӢңлҢҖлЎңвҖҰ кјӯ! мҳ¬н•ҙ лҡ« мҶЎлҸ„м—җ м„ӨмӣҖл°ӣлҚҳ мІӯлқјВ·мҳҒмў…м—җ нҷ”мғүлҸҲлӢӨ вҖңм„ёмў…лҢҖмҷ• нҶөнғ„н•  л…ёлҰҮвҖқ вҖҰ мҶЎлҸ„В·мІӯлқјВ·мҳҒмў… лҸ„лЎң мғҲ м •л¶Җ кіөкіөкё°кҙҖ кө¬мЎ°к°ңнҳҒ к°ҖмһҘ мҡ°м„  кё°мӨҖмқҖ вҖҳкё°лҠҘ к°•мӣҗлҸ„мқҳмӣҗ лӮҙл…„ мӣ”м •мҲҳлӢ№ 1.4% мқёмғҒвҖҰмқҳм •л№„ 55 мһҘкҙҖмқҳ кіөл¬ҙмӣҗ мқёмӮ¬к¶Ң лҢҖнҸӯ нҷ•лҢҖвҖҰ м Ғмһ„мһҗ мӢ мҶҚ л°°м№ҳ вҖңм§ҖмһҗмІҙ л№ҡ мӨ„м—¬лқјвҖқ кёҙм¶• к°•мЎ°н•ң м •л¶Җ л¶ҖмӮ°м—°кө¬мӣҗ вҖңк°ҖлҚ•лҸ„, мҲҳмҶҢмӢңлІ”лҸ„мӢңлЎң л§Ңл“ӨмһҗвҖқ м¶©лӮЁлҸ„мқҳмӣҗ мқҳм •л№„ лҸҷкІ°вҖҰ5%мқёмғҒ м ңмӢң мІңм•ҲВ·м„ңмӮ° вҖң мӮ¬лқјм§ҖлҠ” м—¬к°Җл¶Җ кі м–‘мӢң K-мҪҳн…җмё  н”Ңлһ«нҸј л©”м№ҙлЎң л¶ҖмғҒ л…ёмқё мӮ¶ лҚ” нҢҚнҢҚн•ҳкІҢвҖҰ6л§Ң кіөмқөмқјмһҗлҰ¬ вҖҳмӢ№л‘‘вҖҷ лҜјмӣҗмӢӨ вҖҳм җмӢ¬ нңҙл¬ҙвҖҷвҖҰ лҜјмӣҗмқё вҖңл°ҳм°Ё лӮҙм•ј н•ҳлӮҳвҖқ мӮ¬нҡҢм Ғ н•©мқҳ м—ҶмқҙвҖҰ кІҪкё°лҸ„, лІ„мҠӨ мӨҖкіөмҳҒм ң 1300 н”јн•ҳкі  мӢ¶мқҖ л¬јлҘҳм„јн„°вҖҰ лӮҙмӨҖ н—Ҳк°ҖлҸ„ л’Өм§‘кё° мҶЎлҸ„к°Җ м ңмқј мһҳ лӮҳк°Җ?вҖҰ мҳҒмў…В·мІӯлқј вҖңлӮҙк°Җ лҚ” мһҳ мӢ кіөн•ӯкіј н•Ёк»ҳ лҢҖкө¬ нҺёмһ… мғҲ мӢңлҢҖлЎңвҖҰ кјӯ! мҳ¬н•ҙ лҡ« мқёмІң кІҖлӢЁ л¬јлҘҳм„јн„° к°Ҳл“ұ вҖҳм•Ҳк°ҜмҶҚвҖҷ м„ңмҡёмӢң нҷҳкІҪмҲҳмһҗмӣҗмң„, м—җл„Ҳм§ҖкіөмӮ¬В·н•ңк°•мӮ¬м—…ліёл¶Җ мҶҢкҙҖ м•Ҳм„ұнҷҳ кҙ‘лӘ…мӢң мқҳмһҘ, кІҪкё°лҸ„мӨ‘л¶Җк¶Ң мӢңкө°мқҳнҡҢ мқҳмһҘнҳ‘мқҳ кҙҖм•…кө¬, лӮҙл…„лҸ„ мЈјлҜјм°ём—¬мҳҲмӮ° 15м–өмӣҗ к·ңлӘЁвҖҰ35к°ң кІҪм°°лі‘мӣҗ нҮҙмӣҗВ·м§‘мІӯмҶҢк№Ңм§ҖвҖҰ мҶЎнҢҢн‘ң вҖҳлҸҢлҙ„вҖҷ мҶЎнҢҢ мһ¬кұҙм¶• л№ЁлҰ¬ мўҖвҖҰ кө¬мІӯмһҘмқҙ көӯнҶ л¶Җм—җ м§Ғм ‘ кұҙмқҳ мҶЎнҢҢ вҖңм°¬лһҖн•ң л°ұм ңл¬ёнҷ” лҠҗк»ҙ ліҙм„ёмҡ”вҖқ мҶЎнҢҢ нҳјмһҗ мӮ¬лҠ” мІӯл…„м—җкІҢ вҖҳмҳӨлЎҜмқҙвҖҷ вҖң19л…„м§ё л§Өмқј мғҲлІҪ мҳӨнҶ л°”мқҙлЎң мҲңм°° лҙүмӮ¬вҖқвҖҰ кҙҖм•… мұ… м“°лҠ” кө¬мІӯмһҘ, м§Җм—ӯ м–ҙлҰ°мқҙл“Өкіј вҖҳм„ұлҸҷ ESGвҖҷлҘј мҶЎнҢҢ л”°лң»н•ң мӮ¬лһ‘мқҖ лңЁлҒҲн•ң н”јмһҗлҘј нғҖкі лҒҠкІЁ мһҲлҚҳ к°•лӮЁ нғ„мІң мӮ°мұ…лЎң, к°•л‘‘ л№„нғҲкёё мҡ°нҡҢн•ҳлҠ” вҖҳм„ң к°җлҸ…вҖҷмқҳ н•ңм„ұл°ұм ңл¬ёнҷ”м ң 30л§ҢлӘ… мҰҗкІјлӢӨ м·Ёмһ„ 100мқј л§һмқҖ мҳӨм–ём„қ лҸ„лҙүкө¬мІӯмһҘ вҖңкө¬лҜјл“Өмқҙ мІҙ мҳ¬н•ҙ 5кёү кіөл¬ҙмӣҗ м—¬м„ұ н•©кІ©мһҗ л№„мңЁ мӨ„м—ҲлӢӨ вҖңмқҢмӢқл¬ј м“°л Ҳкё°лҸ„ лӘ» лӮҳк°ҖвҖқвҖҰ кіөмӢң л¬ём ңмң м¶ңмқҖ м—ҶлӢӨ вҖңл№„ мҳ¬лқјм№ҳл©ҙ л№—л°©мҡёл§Ң міҗлӢӨлҙҗвҖҰ кё°мғҒмқҙліҖ мһҰм•„ мөңк·ј лҜјк°„ кІҪл ҘкІҪмҹҒмұ„мҡ© мӢңн—ҳ кҙҖл¬ёвҖҰ 3л…„ мқҙмғҒ мҳҲліҙВ·кё°мӮ¬ вҖңлҜјмӣҗ вҖҳм ңлЎңвҖҷ лҗ  л•Ңк№Ңм§Җ кө¬м„қкө¬м„қ лҲ„лІјм•јмЈ вҖқ[мқҳм • м¶”мңӨкө¬ кҙ‘м§„кө¬мқҳнҡҢ мқҳмһҘ вҖңм§Җм—ӯкІҪм ң нҷңм„ұнҷ” мөңлҢҖ кҙҖмӢ¬мӮ¬ лҸ„мӢңкі„нҡҚ мһ¬м§„лӢЁ вҖҳмў…мғҒн–ҘвҖҷн•ҙм•јвҖқ м•„лҸҷл“Өм—җкІҢ нқ¬л§қ м „н•ҳлҠ” вҖҳкҙҖм•… мҶҢл§қ л°°лӢ¬л¶ҖвҖҷ вҖңм–‘мІңмқё лҜёлһҳ 50л…„ л§Ңл“Ө мҙҲм„қ лӢӨм§Ҳ кІғвҖқ м·Ёмһ„ 100мқј мқҙкё°мһ¬ м–‘мІңкө¬мІӯмһҘ к№ЁлҒ—н•ң лҸ„мӢң л“ұ 5лҢҖ лӘ©н‘ң кіөк°ң м•ҲмӢ¬лҸҢлҙ„ л“ұ мӮ¬нҡҢліҙмһҘкі„нҡҚ мҲҳлҰҪ вҖңмӢӨмІң н–үм •мңјлЎң лӢӨмӢң лӣ°лҠ” лҸҷмһ‘ л§Ңл“ӨкІ лӢӨвҖқ м·Ёмһ„ 100мқј л°•мқјн•ҳ лҸҷмһ‘кө¬мІӯмһҘ нҠ№мӮ°л¬ј нҷҚліҙВ·мқҙлҜём§Җ н–ҘмғҒ л‘җ нҶ лҒј мһЎ м„ңмҡё көӯм ңкёҲмңөкІҪмҹҒл Ҙ вҖҳлҜёлһҳл¶ҖмғҒ к°ҖлҠҘм„ұ к°Җмқ„лӮ  м¶Өм¶”лҠ” м–өмғҲмқҳ н–Ҙм—°мңјлЎң вҖҳн–үліөк°Җмқ„л°”лһҢм—җ нқ”л“ӨлҰ¬лҠ” м–өмғҲкҪғмқҳ м•„лҰ„лӢӨмӣҖмқ„ мҰҗкёё мҲҳ мһҲлҠ” вҖҳм„ңмҡём–өмғҲм¶•м ңвҖҷк°Җ 3л…„ л§Ңм—җ лӢӨмӢң м°ҫм•„мҳЁлӢӨ.м„ңвҖҰ м„ңмҡёВ·мҲҳмӣҗВ·нҷ”м„ұ, м •мЎ°лҢҖмҷ• лҠҘн–үм°Ё 3 нқҷкіөмңјлЎң мҡ°лҰ¬ л§Ҳмқ„ лҸ„лһ‘ мӮҙлҰ¬кё° лҶҚмҙҢ нҸҗкөҗк°Җ AlлЎңлҙҮВ·л“ңлЎ  вҖҳкіјн•ҷ лҶҖ лҚ”ліҙкё° [кё°мһ¬л¶Җ] м ң14нҡҢ көӯм ңкёҲмңөкё°кө¬ мұ„мҡ©м„ӨлӘ…нҡҢ к°ңмөң [кіјкё°м •нҶөл¶Җ] м•„нғңмқҙлЎ л¬јлҰ¬м„јн„°, 2022л…„лҸ„ мқҙнңҳмҶҢ мғҒ мҲҳмғҒмһҗ м„ [кіјкё°м •нҶөл¶Җ] көӯлҰҪкіјмІңкіјн•ҷкҙҖ, м „көӯ көӯкіөлҰҪкіјн•ҷкҙҖкіј мӣҗкІ©көҗмңЎ лҸҷмӢң [кіјкё°м •нҶөл¶Җ] м ң1м°Ё кё°нӣ„ліҖнҷ”лҢҖмқ‘ кё°мҲ к°ңл°ң кё°ліёкі„нҡҚ мӮ°н•ҷм—° м „л¬ёк°Җ [кіөм •мң„] мқҳлҘҳмҡ© мӨ‘м„ұм„ём ң л№„көҗм •ліҙ мғқмӮ° кІ°кіј мһҗлЈҢ м ңкіө : м •мұ…лёҢлҰ¬н•‘ korea.kr м„ нғқн•ҳм„ёмҡ” лҢҖнҶөл №мӢӨ көӯл¬ҙмЎ°м •мӢӨ кё°нҡҚмһ¬м •л¶Җ көҗмңЎл¶Җ кіјн•ҷкё°мҲ м •ліҙнҶөмӢ л¶Җ мҷёкөҗл¶Җ нҶөмқјл¶Җ лІ•л¬ҙл¶Җ көӯл°©л¶Җ н–үм •м•Ҳм „л¶Җ л¬ёнҷ”мІҙмңЎкҙҖкҙ‘л¶Җ лҶҚлҰјм¶•мӮ°мӢқн’Ҳл¶Җ мӮ°м—…нҶөмғҒмһҗмӣҗл¶Җ ліҙкұҙліөм§Җл¶Җ нҷҳкІҪл¶Җ кі мҡ©л…ёлҸҷл¶Җ м—¬м„ұк°ҖмЎұл¶Җ көӯнҶ көҗнҶөл¶Җ н•ҙм–‘мҲҳмӮ°л¶Җ мӨ‘мҶҢлІӨмІҳкё°м—…л¶Җ к°җмӮ¬мӣҗ көӯк°Җм •ліҙмӣҗ л°©мҶЎнҶөмӢ мң„мӣҗнҡҢ көӯк°Җмқёк¶Ңмң„мӣҗнҡҢ көӯк°ҖліҙнӣҲмІҳ мқёмӮ¬нҳҒмӢ мІҳ лІ•м ңмІҳ мӢқн’Ҳмқҳм•Ҫн’Ҳм•Ҳм „мІҳ кіөм •кұ°лһҳмң„мӣҗнҡҢ кёҲмңөмң„мӣҗнҡҢ көӯлҜјк¶Ңмқөмң„мӣҗнҡҢ мӣҗмһҗл Ҙм•Ҳм „мң„мӣҗнҡҢ көӯм„ёмІӯ кҙҖм„ёмІӯ мЎ°лӢ¬мІӯ нҶөкі„мІӯ кІҖм°°мІӯ лі‘л¬ҙмІӯ л°©мң„мӮ¬м—…мІӯ кІҪм°°мІӯ мҶҢл°©мІӯ л¬ёнҷ”мһ¬мІӯ лҶҚмҙҢм§„нқҘмІӯ мӮ°лҰјмІӯ нҠ№н—ҲмІӯ м§Ҳлі‘кҙҖлҰ¬мІӯ кё°мғҒмІӯ н–үм •мӨ‘мӢ¬ліөн•©лҸ„мӢңкұҙм„ӨмІӯ мғҲл§ҢкёҲк°ңл°ңмІӯ н•ҙм–‘кІҪм°°мІӯ мЎ°м„ёмӢ¬нҢҗмӣҗ мҳЁмӢӨк°ҖмҠӨмў…н•©м •ліҙм„јн„° м„ нғқн•ҳм„ёмҡ” м„ңмҡёнҠ№лі„мӢң л¶ҖмӮ°кҙ‘м—ӯмӢң мқёмІңкҙ‘м—ӯмӢң лҢҖм „кҙ‘м—ӯмӢң лҢҖкө¬кҙ‘м—ӯмӢң кҙ‘мЈјкҙ‘м—ӯмӢң мҡёмӮ°кҙ‘м—ӯмӢң м„ёмў…нҠ№лі„мһҗм№ҳмӢң кІҪкё°лҸ„ к°•мӣҗлҸ„ м¶©мІӯл¶ҒлҸ„ м¶©мІӯлӮЁлҸ„ м „лқјл¶ҒлҸ„ м „лқјлӮЁлҸ„ кІҪмғҒл¶ҒлҸ„ кІҪмғҒлӮЁлҸ„ м ңмЈјлҸ„ м„ нғқн•ҳм„ёмҡ” мў…лЎңкө¬ мӨ‘кө¬ мҡ©мӮ°кө¬ м„ұлҸҷкө¬ кҙ‘м§„кө¬ лҸҷлҢҖл¬ёкө¬ мӨ‘лһ‘кө¬ м„ұл¶Ғкө¬ к°•л¶Ғкө¬ лҸ„лҙүкө¬ л…ёмӣҗкө¬ мқҖнҸүкө¬ м„ңлҢҖл¬ёкө¬ л§ҲнҸ¬кө¬ м–‘мІңкө¬ к°•м„ңкө¬ кө¬лЎңкө¬ кёҲмІңкө¬ мҳҒл“ұнҸ¬кө¬ лҸҷмһ‘кө¬ кҙҖм•…кө¬ м„ңмҙҲкө¬ к°•лӮЁкө¬ мҶЎнҢҢкө¬ к°•лҸҷкө¬ мӢ л¬ёкө¬лҸ… кҙ‘кі м•ҲлӮҙ (м§Җл©ҙ/мҳЁлқјмқё/мҳҘмҷё) м„ңмҡёл§ҲлӢ№ м Җмһ‘л¬ј кө¬л§Ө кІ¬н•ҷмӢ мІӯ лҸ…мһҗк¶Ңмқөмң„ кі м¶©мІҳлҰ¬В·м •м •ліҙлҸ„ м ңнңҙ л°Ҹ л¬ёмқҳ мӮ¬мқҙнҠёл§ө нҡҢмӮ¬мҶҢк°ң м•ҢлҰјВ·мӮ¬кі н–үмӮ¬м•ҲлӮҙ мұ„мҡ© мқҙмҡ©м•ҪкҙҖ к°ңмқём •ліҙм·Ёкёүл°©м№Ё мІӯмҶҢл…„ліҙнҳём •мұ…(мұ…мһ„мһҗ:мқҙм§Җмҡҙ) м Җмһ‘к¶Ң к·ңм•Ҫ мЈјмҶҢ : 100-745 м„ңмҡёмӢң мӨ‘кө¬ м„ёмў…лҢҖлЎң 124 (нғңнҸүлЎң1к°Җ 25лІҲм§Җ) м„ңмҡёмӢ л¬ёмӮ¬л№Ңл”© l лҢҖн‘ңм „нҷ” : (02) 2000-9000 мқён„°л„·м„ңмҡёмӢ л¬ём—җ кІҢмһ¬лҗң мҪҳн…җмё мқҳ л¬ҙлӢЁ м „мһ¬/ліөмӮ¬/л°°нҸ¬ н–үмң„лҠ” м Җмһ‘к¶ҢлІ•м—җ м Җмҙүлҗҳл©° мң„л°ҳ мӢң лІ•м Ғ м ңмһ¬лҘј л°ӣмқ„ мҲҳ мһҲмҠөлӢҲлӢӨ. Copyright © м„ңмҡёмӢ л¬ёмӮ¬ All rights reserved.</t>
+  </si>
+  <si>
+    <t>"세계자연유산, 제주도가 3류 저가관광지로 전락시켜" &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 "세계자연유산, 제주도가 3류 저가관광지로 전락시켜" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 "세계자연유산, 제주도가 3류 저가관광지로 전락시켜" 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.05.23 18:09 댓글 4 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 학계·관광업계·환경단체, 한라산·일출봉 입장료 징수·인상 한목소리 ▲ 제주도의회 제주문화관광포럼이 23일 '세계자연유산 입장료 징수 어떻게 할 것인가'를 주제로 정책토론회를 개최했다 ⓒ제주의소리 환경단체와 학계는 물론 관광업계까지 한라산과 성산일출봉, 만장굴 등 세계자연유산에 대한 입장료를 올려야 한다고 한목소리를 냈다.제주도의회 의원연구모임 제주문화관광포럼(대표 강경식 의원)은 23일 오후 2시 도의회 소회의실에서 '세계자연유산 입장료 징수 어떻게 할 것인가'를 주제로 제32차 제주문화관광포럼 정책토론회를 개최했다.이날 정책토론회에서는 문화재청 국립문화재연구소 임종덕 학예연구관이 '해외 사례로 바라본 제주 세계유산의 가치 활용 극대화 방안'을 주제로 발표했다.토론은 강경식 대표가 좌장을 맡아 강만생 제주세계자연유산위원회 위원장, 고승철 제주도관광협회 부회장(일출랜드 대표이사), 오석삼 제주도산악연맹 회장 직무대리, 이영웅 제주환경운동연합 사무처장, 고태호 제주발전연구원 경제산업연구부장이 나섰다.강만생 위원장은 "세계자연유산에 대한 적극적이고, 창의적인 활용을 고민해야 될 시점"이라며 "성산일출봉과 만장굴의 경우 입장료가 2000원 미만으로, 100% 인상도 가능하다"고 말했다.강 위원장은 "특히 한라산의 경우 입장료가 징수되지 않고 있는데, 지난해 125만명이 한라산을 찾을 정도로 탐방객 수가 늘어나게 될 것이기 때문에 입장료 징수를 서둘러야 할 때"라며 "일부 탐방로에 대해서는 사전예약제를 통해 코스별 탐방객 분산도 바람직하다"고 제안했다.입장료 인상에 반대해 왔던 관광업계도 세계자연유산 입장료 인상에 찬성했다.고승철 관광협회 부회장은 "관광협회 입장에서는 세계자연유산만이 아니라 절물이나 한라수목원도 입장료를 징수하거나 인상해서 관광객을 날짜나 계절별로 줄이는 게 필요하다"며 "입장료를 지나치게 낮게 하거나 무료로 하는 것은 자치단체가 나서서 제주관광의 질을 떨어뜨리고 있는 것"이라고 비판했다.고 부회장은 "세계자연유산인 한라산이나 만장굴, 일출봉을 명품관광지로 만들어야 한다. 사설관광지인 쌍용굴이나 미천굴의 경우 (입장료가)1만원인데 (공설관광지인)만장굴이나 일출봉은 2000원 미만으로 너무 저가관광지로 전락하고 있다"며 "일출봉의 경우 20년 동안 요금이 2000원인데 300만명이 찾으면 60억원이다. 6000원으로 올리면 100만명만 찾아도 60억원이며, 150만명이 찾으면 100억원이 넘는다. 다른 관광지로 분산효과가 나고, 자연유산도 보호할 수 있게 된다"고 주장했다.그는 "한라산과 일출봉, 만장굴은 세계자연유산으로 명품인데 왜 짝퉁처럼 저가관광지로 전락시키느냐"며 "고품격 명품 관광지로 만들어야 한다"고 강조했다. ▲ 제주도의회 제주문화관광포럼이 23일 '세계자연유산 입장료 징수 어떻게 할 것인가'를 주제로 정책토론회를 개최했다 ⓒ제주의소리 오석삼 제주도산악연맹 회장 직무대리는 "30년전 한라산 등반객이 10만명이었는데 지금은 120만명으로 12배나 늘었다"며 "등반객이 늘어난 만큼 한라산 훼손은 심각해지고 있다"고 경고했다.그는 "제주의 상징이라고 할 수 있는 한라산이 거문오름보다 못한 대우를 받고 있다. 같은 자연유산인데도 거문오름은 유료와 예약제, 해설사가 운영되고 있다"며 "한라산에 입장료를 징수하고, 예약제를 하게 되면 한라산이 안고 있는 문제들을 해결할 수 있는 최선책이 될 수 있다"고 말했다.오 회장은 "유료화와 예약제를 실시하게 되면 탐방인원과 코스를 분산할 수 있고, 5.16도로 불법 주차 문제도 해결할 수 있을 뿐만 아니라 산악가이드를 운영할 수 있다"며 "하루 빨리 유료화 및 예약제를 도입해야 한다"고 역설했다.이영웅 제주환경운동연합 사무처장은 제주도가 세계자연유산인 한라산과 일출봉, 만장굴을 3류 저가관광지로 만들고 있다고 비판했다.이 사무처장은 "세계자연유산지구는 전세계적으로 190곳 밖에 없는 보호지역이다. 제주도는 한라산과 일출봉, 만장굴을 보호지구가 아닌 관광지로 활용하고 있다"며 "문제는 관광지 중에서 최고급 관광지가 아니라 3류 저가관광지로 만들고 있다"고 꼬집었다.그는 "시간 때우기 용 저가관광지로 만들 게 아니라 자연유산 보호지역으로 입장료를 받아야 한다"며 "그동안 정부나 자치단체의 자연유산 보전 관련 정책이 미흡했다"고 지적했다.또 이 처장은 "보호지역이기 때문에 탐방객에 대한 수요관리가 필요하다"며 "성산일출봉 입장료를 2000원에서 7000원이나 1만원으로 올리면 일단 대규모 단체관광객이 확 줄어들고, 주차난으로 공유수면을 매립해야 하는 황당한 방안도 사라지게 될 것"이라고 내다봤다. 고태호 제주발전연구원 경제산업연구부장은 "경제학적으로 관광요금에 대한 탄력성이 낮다. 요금을 올려도 수요가 줄어들지 않기 때문에 요금을 올리는 게 합리적"이라고 말했다.고 부장은 "제주미래비전 용역에서는 숙박세를 제안하고 있는데, 문제는 사업체에 부과하기 때문에 조세저항이 매우 클 것으로 예상된다"며 "조세저항의 최소화를 위해서는 입도객에게 입도세를 부과하는 방안도 고민해야 한다"고 제언했다. 관련기사 과부하 걸린 한라산·일출봉 ‘입장료’ 올려? 놔둬? 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-인도네시아, 에너지.관광 분야 협력 모색 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도-인도네시아, 에너지.관광 분야 협력 모색 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도-인도네시아, 에너지.관광 분야 협력 모색 오미란 기자 headlinejeju@headlinejeju.co.kr 승인 2016.05.25 20:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 원희룡 지사-후구아 인니 와카토비 시장 환담 25일 제11회 평화와 번영을 위한 제주포럼이 진행되는 ICC 제주에서 원희룡 제주도지사와 후구아(Hugua) 인도네시아 와카토비 시장 등 와카토비 대표단이 기념사진을 촬영하고 있다. ⓒ헤드라인제주 원희룡 제주지사와 후구아(Hugua) 인도네시아 와카토비 시장은 25일 제11회 평화와 번영을 위한 제주포럼이 진행되는 ICC 제주 조직위원장 접견실에서 회동을 갖고 제주의 청정 에너지와 관광 분야를 중심으로 한 협력방안에 대해 논의했다.이 자리에서 원 지사는 먼저 관광에 대한 서로의 아이디어를 교환하자고 제안했다. 원 지사는 "(관광과 매력적인 자연의 섬인) 와카토비시를 창조적으로 이끌고 있는 후구아 시장의 아이디어를 굉장히 좋아한다"며 "제주는 섬 축제를 진행하다 중단됐다가 지금 현재 재검토를 하고 있다. 만약에 다시 시작한다면 와카토비시가 좋은 파트너가 될 수 있을 것"이라고 말했다.후구아 와카토비 시장도 "앞으로 계속 만나고 협력하자"고 공감하며, "제주의 천혜 자연 환경이 엄청 인상적이고 홍콩과 싱가폴과는 다른 느낌"이라며 제주방문 소감을 전했다. 이에 원 지사는 "우리 제주는 도시적인 홍콩과 싱가폴과는 다른 발전을 추구하고 있다. 청정의 자연환경을 보존하면서 공존할 수 있는 전략을 취하고 있으며, 제주의 문화예술을 발전시켜 나갈 것"이라고 답했다. 또 원 지사는 "인도네시아는 한국 뿐만 아니라 제주와의 협력이 중요하다"고 강조하며 "관광·문화·에너지 분야에서 실질적인 협력을 기대한다"고 말했다. 후구아 와카토비 시장은 제주의 탄소 없는 섬 프로젝트에 대해서도 깊은 관심을 보였다.후구아 시장은 "와카토비에도 풍력단지나 태양력 에너지를 만드는 시설이 있다. 신재생에너지를 만드는 데 많은 아이디어를 얻게 됐다"며 "제주의 카본프리 아일랜드, 관광 및 문화, 쓰레기 처리 등 도정 전반적인 정책에서 배울 점이 많고, 인도네시아 지방 정부의 개발 정책 수립에 있어 제주에서 얻은 영감이 매우 도움이 될 것"이라고 밝혔다. 이번 면담과 관련해 제주도 관계자는 "이번 인도네시아 와카토비 시장 일행의 제주 방문은 제주포럼 참가 뿐만 아니라 제주도의 주요정책 벤치마킹을 위한 것"이라며 "제주와 인도네시아 간 상호 협력 가능성을 모색하는 계기가 될 것"이라 말했다.&lt;헤드라인제주&gt; ▲ 후구아(Hugua) 인도네시아 와카토비 시장. ⓒ헤드라인제주 ▲ 25일 제11회 평화와 번영을 위한 제주포럼이 진행되는 ICC 제주 조직위원장 접견실에서 회동한 원희룡 제주도지사와 후구아 인도네시아 와카토비 시장. ⓒ헤드라인제주 &lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제11회 제주포럼 개막..."평화의 실크로드 이어나가자" 제11회 제주포럼 폐막...'亞 새로운 질서' 집중 조명 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>방한 외국인관광객 18.3% 제주도 여행...'성산일출봉' 최고 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 방한 외국인관광객 18.3% 제주도 여행...'성산일출봉' 최고 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 방한 외국인관광객 18.3% 제주도 여행...'성산일출봉' 최고 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.05.23 23:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 지난해 우리나라를 방문한 외래관광객 중 18.3%가 제주도를 여행한 것으로 분석됐다. 제주를 찾은 외국인에서는 10명 중 7명 이상이 성산일출봉을 방문한 것으로 조사됐다.문화체육관광부는 23일 우리나라를 방문한 외래관광객의 한국여행 실태, 한국여행 소비실태, 한국여행에 대한 평가를 조사하기 위해 실시한 '2015년 외래관광객 실태조사' 결과를 발표했다.이번 조사는 우리나라를 방문한 후 4개 국제공항(인천, 제주, 김포, 김해) 및 2개 국제항(인천, 부산)을 통해 출국하는 만 15세 이상 외래관광객 1만2900명을 대상으로 면접조사 방식으로 진행됐다.이 결과 조사 대상 외래관광객의 46.1%가 한국을 2회 이상 방문한 것으로 나타났다.방한횟수는 1회 53.9%, 2회 16.3%, 3회 7.9%, 4회 이상 21.9%로, 재방문율이 절반 가까이 되는 것으로 파악됐다.국가별로는 16개 조사대상국 중 일본인 관광객의 재방문율이 78.7%로 가장 높게 조사됐다. 이어 싱가포르(60.6%), 홍콩(59.0%), 러시아(57.7%) 순으로 높았다.우리나라 인바운드 시장에서 가장 높은 비중을 차지하는 중국인 관광객의 재방문율은 37.8%로 조사됐다.한국 여행 시 방문지를 조사한 결과 78.7%로 가장 높았다. 이어 제주도가 18.3%로 뒤를 이었다. 방한 외국인 중 제주도 여행 비중은 2011년 10.2%, 2012년 12.0%, 2013년 16.7%, 2014년 18.0%로 점차 높아가는 추세를 보였다.제주도 다음으로는 경기 13.3%, 부산 10.3%, 인천 6.8%, 강원 6.4%, 경남 3.2% 순으로 나타났다.제주도 여행시 가장 방문한 관광명소로는 성산일출봉이 78.3%로 크게 높았다. 이어 테디베어박물관 69.8%, 용두암 66.4%, 제주민속촌 62.7%, 한라산 51.5%, 중문관광단지 45.1%, 섭지코지 33.2%, 우도.마라도.추자도 22.7%, 제주 올레길 19.8%, 거문오름용암동굴계 8.8% 순이다.'한국 선택시 고려 요인' 조사 결과에서는 여전히 '쇼핑'(67.8%)이 가장 높으나 2014년(72.3%)과 비교해서는 감소했다.이어 '음식.미식 탐방', '역사/문화유적', '패션, 유행 등 세련된 문화' 등의 비중이 전년 대비 증가한 것으로 나타났다.체재 기간은 평균 6.6일로 전년 대비 0.5일 증가했다.1인 평균 지출 경비는 1712.5달러로 전년과 비교해 107달러 증가했으며, 여행유형별로는 개별여행객 1673.4달러, 단체여행객 1908.4달러, 에어텔 여행객 1286.2달러로 조사됐다.총 지출금액을 총 체류기간으로 나눈 '1일 평균 지출 경비'는 328.1달러로 나타났다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 업계 공동 북경지역 비즈니스 세일즈 전개 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 업계 공동 북경지역 비즈니스 세일즈 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 업계 공동 북경지역 비즈니스 세일즈 전개 기자명 고병수 기자 입력 2016.05.23 18:14 수정 2016.05.23 18:28 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 지난 20일 제주직항 노선 취항지역인 중국 북경에서 개최되는 관광전문 박람회인 2016북경국제여유박람회(BITF)’에 제주도관광협회가 참가한 모습. (제주=국제뉴스) 고병수 기자 = 제주도와 道관광협회(회장 김영진)는 지난 20일부터 22일까지 제주직항 노선 취항 지역인 중국 북경에서 개최되는 관광전문 박람회인 '2016북경국제여유박람회(BITF)'에 관광업계 공동으로 참가했다.박람회에는 관광업계 공동으로 장기체류형 자유 여행객 및 고부가가치 레저스포츠 관광객 유치 증진을 위한 맞춤형 상품을 개발해 전략적 비즈니스 세일즈 마케팅을 전개했다.도내 여행사, 관광지, 해양레저, 숙박업체 등 다양한 업종별 관광사업체가 참가해 현지 여행사와 일반 소비자에게 풍부한 제주관광 상품 및 관광정보를 제공했다.또한 개별 자유여행 상품을 전문으로 판매하는 온라인 업체 투니우, 통청여행사를 방문해 현지 방한상품 담당자와의 1:1 개별 세일즈를 통해 제주관광 상품을 집적 홍보 및 전달해 비즈니스 세일즈 효과를 극대화했다.향후 지속적인 자유여행 상품 제공으로 중국인 개별 관광객 유치에 공동 협력해 나가기로 했다. 특히 29일에 개최되는 제21회 제죽국제관광마라톤축제에 70여명의 참가자를 유치한 레저스포츠 전문 기업체 '북경파오날'를 방문해 내년도 마라톤 참가자 및 동반가족 유치 확대를 위해 중국지역 온·오프라인 마케팅을 강화하기로 협의했다.관계자는 "앞으로 제주도와 관광협회는 도내 관광업계와의 협업을 통한 공동 비즈니스 마케팅 전개로 중국지역의 고부가가치 개별 및 특수목적 관광객 유치를 통한 질적 성장을 도모한다"고 했다.한편 도관광협회는 중국 현지 업체와 직거래 시스템 강화를 위해 도내 관광업체들이 해외 관광박람회 참가에 적극적으로 지원해 나갈 계획이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-JTO, 생태관광 활성화 사업 추진 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도-JTO, 생태관광 활성화 사업 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도-JTO, 생태관광 활성화 사업 추진 기자명 조문호 기자 입력 2016.05.24 14:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 인지도 제고‧인식전환‧소득창출 목표통합홍보물 제작 등 향유계층 확대책 [제주도민일보=조문호 기자] 제주도와 제주관광공사(사장 최갑열)는 제주 생태관광 활성화 사업을 추진한다고 24일 밝혔다.이는 생태관광에 대한 향유계층 확대와 인지도 제고를 통해 생태관광의 자생력을 강화하고 상품의 다양성을 높이기 위한 대책이다.이와 관련 제주관광공사는 ‘생태관광 가치의 확산 및 인지도 제고’를 목표로 다채널 홍보마케팅을 통한 생태관광 저변 확대와 생태관광 인식전환을 위한 제주 생태관광 활성화 사업을 추진할 계획이다.올해 사업을 크게 인지도 제고, 인식전환, 소득창출을 목표로 다양한 사업을 추진한다.먼저 인지도 제고를 위해 파워블로거 초청 팸투어, 생태관광 통합홍보물 제작을 추진한다. 최근 스마트폰 보급으로 온라인, SNS를 통한 관광경험 및 정보 공유가 확산되는 트렌드를 반영해 파워 블로거 초청 팸투어 사업을 중점 추진한다.생태관광의 인식전환을 위해서는 생태관광의 체험, 해설 등을 통한 기존 환경책임성 요소를 유지하면서 재미와 흥미를 가미한 생태관광 테마파티를 연 4회 개최할 예정이다.생태관광 상품이 실제 판매돼 지역소득으로 연계될 수 있도록 하기 위해 생태관광 콘텐츠를 활용한 여행상품 개발을 지원, 생태관광을 운영하는 마을들의 소득을 올릴 계획이다.관련 사업으로는 먼저 제주 생태관광 통합홍보물 제작을 추진한다. 작년 소책자 형태에서 접지형 리플릿 형태로 바꾼다.생태관광의 통합적인 정보를 효과적으로 제공하기 위해 지도를 삽입, 한눈에 제주도 전역의 생태관광지와 체험프로그램에 대한 정보를 얻을 수 있도록 구성한다.이에 더해 도내 생태관광지와 생태관광 프로그램 내용, 가격, 이용문의 등의 정보를 보강한다.제주관광공사 관계자는 “생태관광은 향후 제주관광을 선도하는 지속가능한 관광 모델로서 생태관광 통합홍보물을 시작으로 향후 이어지는 사업들을 통해 제주 생태관광의 가치를 널리 알리고, 이로 인한 경제적 효과가 마을주민들에게 돌아가도록 최선의 노력을 다하겠다”고 말했다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광정책 현근협-환경자산보전과장 현석교 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도 관광정책 현근협-환경자산보전과장 현석교 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도 관광정책 현근협-환경자산보전과장 현석교 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.05.19 11:32 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 현근협 관광정책과장-현석교 환경자산보전과장. 제주도는 전임자가 비서실장으로 자리를 옮기면서 공석이 된 관광정책과장에 대한 후속인사를 19일 단행했다.우선 관광정책과장에는 현근협(56) 환경자산보전과장, 환경자산보전과장에는 여성가족연구원에 파견된 현석교(58) 서기관을 발령했다. 원희룡 지사는 지난 9일 현광식 비서실장 후임에 김태엽 관광정책과장을 발탁한 바 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“‘말 바꾸기’ 아냐” 제주도 “신규는 관광지로 추진” 교통정리 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 “‘말 바꾸기’ 아냐” 제주도 “신규는 관광지로 추진” 교통정리 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 “‘말 바꾸기’ 아냐” 제주도 “신규는 관광지로 추진” 교통정리 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.05.18 17:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 18일 오전 도청 기자실을 찾아 전날 국회 법사위를 통과한 '유원지 특례' 제주특별법 개정안 처리와 관련한 브리핑을 하고 있는 권영수 행정부지사. ⓒ제주의소리 제주도, ‘유원지 특례’ 적용범위 혼선에 “전달 과정서 오해…법사위도 오해 없다” 해명제주도가 ‘유원지 특례’ 제주특별법 개정안 처리와 관련한 ‘말 바꾸기’ 논란에 대해 “신규 관광사업이 필요할 경우 유원지가 아니라 관광지로 추진하겠다는 의미”라고 정리했다.제주도는 18일 오전 도청 기자실에서 권영수 행정부지사와 김남선 관광산업과장 등이 참여한 가운데 전날 국회 법제사법위원회를 통과한 제주특별법 개정안과 관련한 브리핑을 진행했다.이날 최대 관심은 ‘유원지 특례’ 적용 범위. 기자들은 전날 법사위에 출석한 원희룡 지사가“향후엔 예래단지를 제외한 모든 유원지 개발에 이 법을 원칙적으로 적용하지 않겠다는 걸 국회에 선언하고 국제사회에도 공표할 의지를 갖고 있다”고 한 발언을 토대로 실효성 담보방안에 대한 질문공세를 이어갔다.답변에 나선 김남선 관광산업과장이 “예래단지의 경우 소송이 걸려있기 때문에 치유하기 위한 방편으로 (원 지사가) 그렇게 언급한 것으로 보인다. 유원지 특례는 예래단지에만 적용하는 게 아니라 모든 유원지에 적용된다”고 말하면서 꼬이기 시작했다.담당과장으로서 법안 조문을 액면 그대로 해석한 것이지만, 전날 원 지사의 “예래단지만 적용하겠다”라고 한 발언과 대비되면서 ‘말 바꾸기’ 논란을 자초했다.논란이 확산되자 제주도는 이날 오후 별도의 보도자료를 내고 유원지 특례 조항에 대해 구체적으로 설명했다.먼저 원 지사의 ‘예래단지만 적용’ 발언에 대해서는 “신규 유원지로 지정되는 경우 적용될 수 있는 사업은 예래단지 뿐이며, 그 이외에는 신규 지정이 없다는 의미”라고 해명했다.소급적용 논란에 대해서도 “예래단지에만 적용한다는 것은 소급 적용이라기보다 (법 개정으로) 새롭게 절차를 밟을 수밖에 없기 때문에 적용하는 것”이라며 “이미 지정돼 완료된 곳은 당연히 적용되고, 지정된 유원지 중 개발허가가 나지 않은 곳은 진행을 하지 않을 방침”이라고 말했다.이미 절차가 진행되고 있는 유원지에 대해서는 “관광숙박시설 30% 이내에서 조례로 정해 진행했다는 것”이라며 “예래단지 이외의 신규 관광사업이 필요할 경우에는 유원지가 아니라 관광지로 추진한다는 방침”이라고 밝혔다.제주도는 특히 “원 지사의 입장을 법사위가 받아서 부대조건으로 명시한 것은 법 시행 당시 지정된 유원지에 한정된다는 것으로, 소송이 진행 중인 곳은 토지주 협의 및 소송결과 존중 등이 붙은 것”이라고 말했다.제주도 관계자는 “유원지 특례와 관련해 원 지사가 ‘예래단지에만 적용하겠다’고 한 것은 입장을 바꾼 것이 아니라 유원지 특례를 적용한 새로운 사업은 예래에 한정한 것이라는 뜻으로, 법사위도 이 점에 대해서는 오해가 없다”고 강조했다.17일 법사위를 통과한 ‘유원지 특례’ 조항을 담은 제주특별법 개정안은 19일 열리는 국회 본회의 의결 절차만 남겨놓고 있다. 관련기사 '유원지 특례' 법사위 통과후 오락가락(?) 제주도 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 2천만명 시대 대비 관광국 신설 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 관광객 2천만명 시대 대비 관광국 신설 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 관광객 2천만명 시대 대비 관광국 신설 송고시간2016-05-13 13:21 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 조직 개편안 입법예고…공무원 정원 88명 증원 관광객으로 북적이는 제주 성산일출봉[연합뉴스 자료사진] (서귀포=연합뉴스) 전지혜 기자 = 중국 노동절과 일본 골든위크를 맞아 제주에 외국인 관광객의 발길이 이어진1일 제주의 대표적인 관광지인 성산일출봉 일대가 많은 내·외국인 관광객으로 북적이고 있다. 2016.5.1 atoz@yna.co.kr (제주=연합뉴스) 김호천 기자 = 제주도는 특별자치 10주년을 맞아 미래 산업과 행정 수요에 대응하기 위해 관광국을 신설하고 행정시의 기능을 강화한 조직개편안을 13일 내놓았다. 이날 입법예고한 제주특별자치도 행정기구 설치 조례 전부 개정조례안과 제주특별자치도 사무위임 조례 일부개정 조례안에서는 기존 13실·국·본부 49과를 13실·국·본부 48과로 조정했다. 관광객 2천만명 시대를 대비하고, 관광산업 진흥으로 도민 삶의 질을 높이기 위한 전담 조직인 관광국을 신설했다. 국제통상국을 없애는 대신 만든 관광국에는 관광정책과, 투자유치과, 카지노감독과를 배치했다. 광고 기존 경제산업국을 경제통상산업국으로 변경하고 경제정책과, 기업통상지원과, 미래에너지과, 전략산업과를 뒀다. 전략산업과에는 전기차정책담당과 전기차산업담당, 신재생에너지담당을 둬 '탄소 없는 섬 2030'(Carbon Free Island 2030) 조기 완성에 힘쓰도록 했다. 정무부지사 밑으로 환경보전국과 공항확충지원본부 등 2국 6과를 놓았다. 직속 부서인 소통정책관은 공보관으로 명칭을 변경했다. 사업소인 수자원본부의 수자원정책관리과는 환경보전국으로 보내고 명칭도 환경자산물관리과로 바꿨다. 도가 직접 물관리 정책을 총괄하겠다는 방침이다. 크루즈 타고 제주 온 중국인 관광객[연합뉴스 자료사진] (제주=연합뉴스) 변지철 기자 = 16일 오후 제주를 찾은 중국 국적 크루즈 가운데 가장 큰 규모인 '스카이씨 골든 에러'(Skysea Golden Era)호가 제주항에 첫 입항, 중국인 관광객들이 크루즈선에서 걸어나오고 있다. 2015.5.16 bjc@yna.co.kr 세계유산·한라산연구원은 세계유산문화재부와 한라산연구부로 편성했다. 세계유산문화재부에는 기존에 있던 세계유산과, 자연유산관리과 외에 문화재과를 추가했다. 본부장 직급은 3급으로 높였다. 도로관리사업소는 본청으로 이관하고, 도립 김창열미술관을 신설했다. 제주시에는 안전교통국을, 서귀포시에는 문화관광체육국을 각각 신설했다. 이들 행정시에는 자동차관리사업 및 화물자동차 유가보조금 지급 등 총 166건의 사무를 위임했다. 읍·면·동에는 공립도서관 운영 둥 38건을 위임했다. 행정시에 있는 유원지시설 개발사업의 시행승인 및 협의와 소속기관에 있는 지방도·옛 국도대체우회도로에 관한 사무 등 52건은 도로 환원했다. 공무원 정원은 현재 5천284명에서 5천372명으로 88명 늘렸다. 기관별로는 도 8명, 감사위원회 4명, 의회 2명, 제주시 50명, 서귀포시 24명이다. 도는 오는 19일까지 의견을 수렴하고 나서 내달 제주도의회에 제출할 예정이다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/05/13 13:21 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 는다지만…자영업자들은 '울상' | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE 8뉴스| 제주도 관광객 는다지만…자영업자들은 '울상' 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 8뉴스 사회 제주도 관광객 는다지만…자영업자들은 '울상' 제주도 관광객 는다지만…자영업자들은 '울상' 정혜경 기자 정혜경 기자 Seoul 이메일 보내기 작성 2016.05.13 20:38 수정 2016.05.13 21:49 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 PIP 닫기 &lt;앵커&gt; 제주도 땅값 오름세가 그칠 줄 모르고 있습니다. 지난해에는 1년 새 무려 19%나 올라서 전국에서 가장 많이 오른 걸로 조사되기도 했습니다. 땅값이 오른만큼 제주도의 부동산 투자 열풍도 아주 뜨겁습니다. 하지만 오른 땅값과 임대료 만큼 상가 매출은 오르지 않고 있어서 상인들은 울상을 짓고 있습니다. 정혜경 기자의 생생리포트입니다. &lt;기자&gt; 중국어로 된 간판이 죽 늘어서 있는 제주의 한 거리. 간간이 사진을 찍는 관광객을 빼곤 손님을 찾기가 어렵습니다. 제주 안의 작은 중국이라 불리며 제주 상권 확장의 중심지가 됐던 바오젠 거리입니다. 관광객들이 몰리면서 몇 년 새 건물 임대료가 배로 뛰었지만 최근 들어 발길이 뜸해졌습니다. 제주를 찾는 외국인 관광객들이 크게 늘고 있다지만 대부분 면세점이나 쇼핑몰만 찾는다는 게 상인들 얘기입니다. 임대료는 천정부지로 오르지만 매출 오름세는 시원찮은 이유입니다. 10년째 장사하는 한 업주는 갈수록 어렵다고 하소연합니다. [식당 업주 : 임대료가 오르고, 그다음에 매출이 상승이 되었으면 같이 가는데 그렇지 않은 것 같아요. 3배에서 최하 2배 이상 (올랐어요). 3.3㎥ 당 월세로 따지면 지금 여기 3.3㎥ 당 100만 원이 다 넘어갈 거예요.] 지난해 제주시에선 일반음식점 835곳이 새로 개업했지만, 영업 부진 등으로 332곳은 폐업하고 1,483곳은 주인이 바뀌었습니다. 많은 돈의 권리금을 주고 들어왔지만 기대한 만큼 장사가 되지 않아 금세 문을 닫거나 업종을 변경하기 일쑤입니다. [제주도 현지 부동산 중개인 : 자꾸 뉴스 때려주니까 그만큼 장사가 잘 될 거라 생각해서 자기도 높은 권리금 주고 들어왔다가.] [김태일/제주대 건축학과 교수 : 함께 개발 이익을 공유하고 미래지향적으로 그 개발과 투자를 유지해나가는 방식이 바람직하지 않을까.] 몇 년째 계속되는 제주 부동산 열풍의 뒤안길에서 골목 상인들은 울상짓고 있습니다. (영상취재 : 이용한, 영상편집 : 신호식) 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 4 정혜경 기자 다른 기사 보기 &gt; 기자님 좋아요4665 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? "크러쉬가 악수 거절…뻔뻔한 인종 차별" 올라온 영상 "스트레스 받는다" 50대 남성, 비비탄 총 꺼내서 한 짓 동영상 기사 '배려석' 앉아있던 임산부, 다가온 노부부에게 들은 말 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 외국인환자 유치 의료관광 홍보관 운영 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 외국인환자 유치 의료관광 홍보관 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 외국인환자 유치 의료관광 홍보관 운영 기자명 고병수 기자 입력 2016.05.18 06:39 수정 2016.05.18 06:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주지역 카지노에서 외국인 의료관광객 홍보관을 열고 홍보하는 모습. (제주=국제뉴스) 고병수기자 = 천혜의 자연환경 등 청정을 모토로 힐링과 함께 고부가가치 선진 글로벌 의료관광을 꿈꾸는 제주의료관광은 아직도 열악한 수준이란 지적이다.이에 제주특별자치도는 지난 11일부터 12일까지 도내 호텔 카지노를 이용하는 외국인 관광객을 대상으로 선도의료기관 의료상품 홍보 및 상담 등 의료관광 홍보관을 운영했다.홍보관 운영은 최근 한류열풍으로 성형, 미용, 치과, 건강검진 등 의료관광 상품이 각광을 받고 있어 관광호텔 카지노를 이용하는 외국인을 대상으로 의료상품 상담 및 홍보를 실시했다. 이 기간 홍보관운영으로 상담 52명, 피부과 진료 1명(러시아인), 건강검진 예약 1명(중국인) 등의 운영성과를 얻었다.관계자는 "앞으로도 관광호텔 카지노 국제대회(포커 등) 참가자를 대상으로 외국인환자 유치 홍보관을 운영할 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 ‘관광과장-계장’ 동시 공석…관광1번지 맞아? &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도 ‘관광과장-계장’ 동시 공석…관광1번지 맞아? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도 ‘관광과장-계장’ 동시 공석…관광1번지 맞아? 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.05.16 11:39 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도, 관광업계 비판여론 감안 “과장만이라도 금주 중 반드시 임용…적임자 물색”대한민국 관광1번지를 자처하는 제주도에서 관광정책 실무책임자들이 동시에 공석이 되는 사태(?)가 발생했다.도청 인사부서에서도 관광업계의 비판여론을 인지해 조만간 ‘원 포인트’ 인사를 실시한다는 방침을 세우고 적임자 물색에 나선 것으로 알려졌다.제주도는 지난달 19일 사의를 표명한 현광식 비서실장 후임에 김태엽 관광정책과장을 지난 5월9일자로 임명했다. 제주도는 또 이날 비서진 일괄사퇴로 공백이 큼에 따라 공직 내부에서 정책보좌관 1명을 발탁했다. 하지만 공교롭게도 신임 비서실장과 관광정책과에서 호흡을 맞추던 채종협 사무관(관광마케팅 담당)이 차출되면서 이번에는 관광부서에 큰 구멍이 생기게 됐다.이에 대해 관광업계의 한 관계자는 “제주도가 대한민국 관광1번지를 자처하면서 정작 인사 때는 관광부서가 뒷전으로 밀리는 경향을 보이고 있다”면서 “이번 비서실장-정책보좌관 인사만 하더라도 그분들은 개인적으로야 능력을 인정받아 발탁된 것이지만, 도정에서는 그에 따른 공백사태까지 감안한 인사를 했어야 했다”고 꼬집었다.제주도가 지난 13일 입법예고한 ‘원희룡표’ 조직개편(안)에서 ‘관광국 신설’을 포함시킨 것은 그 동안 제주에서 차지하는 관광산업의 비중에 비해 행정조직이 이를 뒷받침하지 못하고 있다는 비판을 수용한 결과다.비록 관광정책과장-관광마케팅담당 라인의 공석이 7월초로 예상되는 조직개편 및 하반기 인사 때까지 한시적 조치라고 하더라도 관광업계의 시선도 예사롭지 않다.이 때문인지 제주도는 최근 후임 관광정책과장 인사를 금주 중에 단행한다는 방침을 세운 것으로 알려졌다.제주도 인사부서 관계자는 “무슨 일이 있어도 금주 중에 관광정책과장 인사를 단행, 업무공백을 최소화 하겠다. 현재 적임자를 물색하고 있는 중”이라고 전했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'황금연휴 제주도 다녀온 中 관광객들' 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 최신포토인기포토해외포토분야별포토연예스포츠슬라이드펫카드그래픽뉴스 홈 &gt; 포토 &gt; 사회 &gt; 사회일반 최근 슬라이드 선택 이전 다음 '황금연휴 제주도 다녀온 中 관광객들' 2016/05/08 10:20 송고 이전 다음 정지 자동넘김 시작 자동넘김 멈춤 (서울=뉴스1) 안은나 기자 = 황금연휴(5월5일~8일) 마지막날인 8일 오전 제주도를 출발해 김포공항에 도착한 국내외 관광객들이 이동하고 있다. 2016.5.8/뉴스1		coinlocker@ 기사원문보기 댓글보기 인기 화보 갤러리 [연예가화제] 3년 만에 관객 품으로 돌아온 BIFF [국회ㆍ정당] 윤석열 정부 첫 국감 시작..여야 전방위 격돌 [국방ㆍ외교] '바다 위 군사기지' 美 핵항모 로널드 레이건호, 부산 입항 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>인천 이어 제주도 예고된 파행? 市-관광협회 뭐 씌웠나 &lt; 공연·전시 &lt; 문화 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 인천 이어 제주도 예고된 파행? 市-관광협회 뭐 씌웠나 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 공연·전시 인천 이어 제주도 예고된 파행? 市-관광협회 뭐 씌웠나 기자명 한형진 기자					(cooldead@naver.com) 입력 2016.05.15 15:12 댓글 5 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 [초점] 케이팝 제주 YT엔터, 구설수 오른 2014년 인천 케이팝 주최사와 동일개최 전부터 일부 우려 목소리...마케팅 협약 맺은 관광협회, 확인 부족 제주시화려한 라인업을 내세운 ‘케이팝 엑스포 인 제주’(이하 케이팝 제주)가 개막 이틀 만에 막을 내렸다. 13일부터 19일까지 일주일 동안 티아라, 시스타, 인피니트, 장미여관, 노브레인, 남진, 태진아 등 수많은 가수들이 제주시 종합경기장 주경기장과 한라체육관 무대에 오를 계획이었지만 실제 공연은 13일 오후 6시 개막공연 단 한 차례 뿐이었다. 행사를 준비한 (주)YT엔터테인먼트(이하 YT엔터)는 ‘제주시의 일방적인 부스 철거 조치’로 결국 일정을 취소할 수밖에 없었다는 입장이다. 반면 제주시는 체육시설에서는 취사와 음주를 할 수 없다는 규정을 주최 측이 지키지 않았다며 책임을 상대방에 돌렸다.쉽게 접할 수 없는 스케일의 유명 연예인들의 공연이 무산됐다는 소식에 아쉽다는 의견이 일부 있지만, 이번 파행은 사실상 예고된 것이나 다름없다는 주장도 만만치 않다. 지역 관광, 공연 등 관련 업계에서는 행사 개최 전부터 이미 우려를 보였다.관광업에 종사하는 A씨는 “제주에서 이 정도 규모의 행사가 열리면 이미 항공이나 숙박 쪽에서는 반응이 오기 마련이다. 예약이나 문의가 이어져야 하는데 이번 경우에는 너무나 조용했다”고 말했다. 케이팝 제주 메인무대인 주경기장에는 4000여 좌석이 마련됐다. 13일 오후 7시 개막식에 모인 인원은 500여명 수준이었다. 그 중에는 행사 관계자들도 포함돼 있었다. 개막식 무대를 장식한 가수는 티아라, 포미닛, 피에스타 등이었다. ▲ 13일 열린 케이팝 제주 개막식 공연. 좌석 대다수가 비어있다. ⓒ제주의소리 ▲ 공연장 야외에 설치된 음식 부스. 제주시 체육시설에는 취사나 음주행위가 금지돼 있지만, 케이팝 제주 부스는 이 같은 부스가 상당수 설치돼 결국 사용 허가 취소의 빌미가 됐다. ⓒ제주의소리 주최 측은 남성 7인조 아이돌 그룹 인피니트가 출연하는 17일(화) 티켓은 매진됐다고 설명했다. 선호하는 가수에 따라 팬들의 반응은 다르기 마련이지만, 공연 당일 전체 좌석의 10%밖에 차지 않았다는 점은 뭔가 문제가 있음을 암시하는 대목이다. 여기에 개막 하루 만인 14일 오전 서울에서 내려온 무대 장비 업체가 비용 문제를 이유로 한라체육관 무대를 철거하는 등 행사 전반에 있어서 잡음이 이어졌다.더욱이 행사 주최사인 YT엔터는 이미 2014년 인천에서도 비슷한 공연 개최로 구설수에 오른 바 있다.YT엔터는 SS엔터테인먼트라는 명칭으로 당시 9월 19일부터 10월 5일까지 ‘케이팝 엑스포 인 아시아’라는 공연을 인천광역시 서구 경서동 경인아라뱃길 북인천복합단지에서 열었다. 인천아시안게임 기간에 맞춘 대규모 행사였다. 시크릿, 걸스데이, 시스타, 2PM 등 유명 아이돌 그룹을 비롯해 락, 힙합, 인디, 7080, 트로트 등 다채로운 공연을 계획했다. 케이팝 제주와 유사하다.흥미로운 점은 19일 시작한 인천 공연 역시 저조한 반응으로 일부 공연만 하고나서  5일만인 9월 24일 모든 일정을 취소해 파행으로 끝났다는 점이다. 당시 상황을 취재한 언론 보도에 따르면 행사장인 북인천복합단지는 전기나 수도조차 제대로 들어오지 않은 열악한 장소였다. 많은 업체들이 행사 부스로 참여했지만 결국 큰 손해를 입은 것으로 알려졌다. ▲ 왼쪽은 SS엔터가 2014년 인천에서 개최한 '케이팝 엑스포 인 아시아' 공연 포스터, 오른쪽은 YT엔터가 올해 제주에서 개최한 '케이팝 엑스포 인 제주' 공연 포스터. SS엔터와 YT엔터는 구성원이 상당수 동일한 업체로 확인됐다. ⓒ제주의소리 체육시설에서는 취사·음주행위가 금지된다는 제주시 규정을 제대로 확인하지 않은 채 부스를 모집해, 결과적으로 상인들이 항의하는 이번 사례와 비슷하다. YT엔터 대표 심용태씨는 당시 SS엔터 소속으로 행사 조직위 총감독을 맡았다.  행사 파행이 최종 결정되고 14일 종합경기장 내 기자실에서 열린 기자회견서 심 대표는 "2014년 인천 행사에서 심 대표가 조직위원회 총감독을 맡았고, 그 당시 소속이 SS엔터가 맞느냐"는 질문에 "맞다"고 답했다.때문에 지역에서는 사실상 같은 회사가 인천에 이어 제주에서도 유명 아이돌 그룹을 전면에 내세우는 방식으로 문제를 일으킨 것이 아니냐는 지적이 나오고 있다. 그럼에도 이번 행사를 앞두고 보여준 제주도관광협회(회장 김영진)와 제주시의 모습은 아쉽기만 하다. 행사 내용이나 주최사를 제대로 검증하기 보다는 편승하려는 모습이 강했다.제주도관광협회는 지난 2일 YT엔터와 공동 협력마케팅 업무협약을 체결하며 케이팝 제주의 후원기관으로서 회원사 및 도내 주요기관을 통한 홍보에 적극 협력한다고 약속했다. 상황이 이렇게 되자 협회 관계자는 “우리는 탐나오(협회의 예약 시스템) 예약 지원만 나섰을 뿐”이라며 뒤늦게 선을 그었다.관광협회와 달리 제주관광공사 등은 YT엔터의 후원 요청을 받았으나 행사 내용이나 주최사를 신뢰할 수 없다며 요청을 물리친 것으로 전해졌다. ▲ 제주도관광협회(회장 김영진)와 YT엔터테인먼트(대표이사 겸 총감독 심용태)는 지난 2일 케이팝 제주 성공개최를 위한 공동 협력마케팅 업무협약을 체결했다. ⓒ제주의소리 자료사진 제주시는 자신들이 피해자라는 입장이다. 하지만 종합운동장 시설 사용 허가에 앞서, 관련 동향과 정보를 알아보려는 노력을 조금이라도 기울였다면, 지금과 같은 상황은 벌어지지 않았을 것이란 목소리도 적지 않다. 주최 측은 종합운동장 사용 허가 신청시, 이번 행사로 인해 몇 십 만명의 관광객이 방문할 것이라고 제주시에 밝혔다. 비록 허황된 계획을 제공한 주최 측의 잘못이 크다 해도, 제주시 역시 합리적으로 판단하지 않고 허가를 내줬다는 비난에서 자유로울 수 없게 됐다.제주 공연기획자 B씨는 “아직까지 지역 문화관광 당국은 행사를 하면 인원이 얼마나 오는지, 얼마나 유명한 사람이 오는지에만 관심을 두는 경향이 강하다”며 “내실이나 취지는 자세히 신경 쓰지 않으니 ‘사람만 많이 오면 성공한 거 아니냐’는 식으로 판단하고 그런 취지의 공연들이 제주에 열리기 마련”이라고 꼬집었다.이어 “진정으로 도민들이 예술을 향유할 수 있게 기회를 제공한다면, 보다 다양한 색깔의 예술이 제주에서 펼쳐지도록 행정이 관심을 가져야 한다”고 주문했다.문화예술계 일각에서는 일부 지자체들이 케이팝이라는 화려한 이미지에 기대 행사나 시설 같은 전시성 행정을 벌인 사례가 있는 만큼, 이번 일을 계기로 삼아 지역 문화관광 당국이 한 단계 성숙하는 계기가 돼야 한다고 조언한다. 관련기사 ‘케이팝 제주’ 이틀 만에 전격 취소 결정 케이팝 제주, 체육관 무대도 철거...차질 불가피 온갖 잡음 속 막오른 케이팝 제주, 객석 '텅텅' 제주시, K-POP 공연 체육시설 사용허가 취소 검토 눈 뜨고 당한 제주시...'케이팝 엑스포' 먹자판 될라? "케이팝 제주, 우리도 속았다...다음부턴 신중히” 파행 빚은 케이팝...제주시, 주최측 경찰에 고발 한형진 기자 cooldead@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 신임 비서실장에 김태엽 서기관 임명 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 신임 비서실장에 김태엽 서기관 임명 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 신임 비서실장에 김태엽 서기관 임명 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.05.09 14:22 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 정책보좌관에 채종협 사무관 임명 ▲ 김태엽 신임 비서실장ⓒ헤드라인제주 원희룡 제주도정의 신임 비서실장에 김태엽 제주도 관광정책과장(서기관)이 임명됐다.제주특별자치도는 9일자로 원희룡 제주지사가 신임 비서실장에 김 서기관을 임명했다고 밝혔다.   신임 김 비서실장은 오현고등학교와 제주대학교를 졸업하고 1987년 공직에 입문해 민군복합형관광미항추진단지원팀장, 축산분뇨악취개선추진팀장, 카지노감독관리추진팀장 등을 역임했다.지난 1월 단행된 상반기 정기인사에서 서기관으로 승진하면서 관광정책과장을 맡아 일해왔다.한편 도정 주요 정책에 대한 도지사의 정책적 보좌역할을 할 정책보좌관에는 채종협 관광마케팅담당을 임용했다. 이번 인사는 지난 4.13총선이 끝난 후 현광식 비서실장을 비롯해 정책보좌관 등 정무라인 4명이 일괄 사직하면서 이뤄졌다. 종전 개방형 직위로 임명되던 비서실장과 정책보좌관을 공직 내부에서 임명한 점이 눈길을 끈다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 여행주간 맞아 관광객 맞이 '주력' | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도, 여행주간 맞아 관광객 맞이 '주력' 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도, 여행주간 맞아 관광객 맞이 '주력' 기자정보, 기사등록일 입력 2016-05-09 04:41 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 아주경제 기수정 기자=제주도가 오는 14일까지 이어지는 여행주간을 맞아 관광객 맞이에 열을 올리고 있다. 제주도와 제주관광공사는  ‘제주 푸드앤와인페스티벌(5∼14일)’ 기간 제주의 건강한 향토음식과 맛집을 소개한다. 10일 크루즈항에서는 일본인 관광객들을 위한 대대적인 환영행사와 선내 이벤트도 펼친다. 제주도관광협회·시장 상인회·유관기관 등은 관광객 환대를 위한 ‘케이스마일 캠페인’ 행사를 진행하고 오는 25일까지 제주공항 국제선 3층 출국장에서는 ‘환송캠페인’을 연다. 관련기사로봇카페 비트, 여행 수요 회복에 휴게소·리조트 매출 53% ↑1000원대 도시락 먹으러 일본행?…엔저에 여행수요 폭발 #여행 #제주도 #제주도 여행 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>전국 첫 관광국 신설…수자원 정책 제주도 본청 이관 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 전국 첫 관광국 신설…수자원 정책 제주도 본청 이관 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 전국 첫 관광국 신설…수자원 정책 제주도 본청 이관 기자명 강승남 기자 입력 2016.05.15 15:03 수정 2016.05.18 13:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도, 조직개편…의회 의결 거쳐 하반기 인사 적용상수도·지하수 이원화로 관리 효율성 하락 우려제주도가 전국 최초로 관광국을 신설하는 대신 국제통상국을 폐지한다. 또 세계유산·한라산연구원과 한라산국립공원관리사무소를 통합해 세계유산본부(3급)로 격상하고 수자원정책 업무를 도 본청으로 이관한다.제주도는 이 같은 내용을 담은 '제주특별자치도 행정기구 설치 조례 전부개정 조례안'을 입법예고하고 19일까지 의견을 수렴한다고 15일 밝혔다.주요 내용을 보면 우선 관광산업의 질적 성장을 위해 관광국을 신설한다. 관광국에는 카지노산업과를 비롯해 투자유치과, 관광정책과가 편제돼 투자유치 업무가 일원화된다.또 문화관광스포츠국은 관광분야가 제외되면서 문화체육대외협력국으로 명칭이 변경된다. 반면 국제통상국은 폐지된다. 또한 국제자유도시건설교통국은 도로관리사업소 업무가 이관되면서 명칭도 도시건설국으로 바뀐다. 경제산업국도 수출업무를 흡수, 경제통상산업국으로 간판이 바뀐다. 중산간 보전 등 개발과 보존의 균형 유지와 제2공항 건설관련 주민 소통 강화를 위해 환경보전국과 공항확충지원본부를 정무부지사 소관으로 조정한다.행정시 조직도 변경된다. 제주시는 안전교통국, 서귀포시는 문화관광체육국이 신설된다. 이에 따라 제주시는 6국에서 7국, 서귀포시는 5국에서 6국 체제로 바뀐다.하지만 물관리 정책 기능 강화와 지하수 보전·물산업 육성을 위해 현행 수자원본부 수자원정책관리과의 수자원정책 기능이 본청 환경보전국 환경자산물관리과로 이관됨으로써 지하수자원 통합관리정책이 무너질 것이란 의견이 제기되고 있다. 상수도가 지하수자원을 100% 활용하는 특성상 상수도 부서와 지하수 부서가 긴밀히 연계해야 함에도 도의 조직개편으로 상수도는 수자원본부, 지하수자원은 환경보전국이 '따로 따로' 수행토록 했기 때문이다. 때문에 인구증가에 따른 상수도 개발시 지하수 수량·수질 등 사전 조사는 물론 기간 단축·비용 절감 등 안정적인 수돗물 공급에도 차질이 우려된다. 특히 용역연구팀이 주민밀착형 행정 일환으로 현행 5급 읍면동장을 4급으로 격상, 읍·면·동 기구를 늘리도록 제안한 '책임읍면동제'가 미반영, 현장행정서비스 개선이 미흡하다는 지적이다. 경북 경주시 등 타 지역이 4급 서기관을 책임읍장으로 격상, 주민밀착행정 수행을 위해 기구를 확대하고 있지만 도는 이번 조직개편에서 책임읍면동제를 제외, 혁신 의지가 부족하다는 지적이다. 한편 도 관계자는 "책임읍면동제는 지도감독 업무를 맡은 행정시가 원하지 않아 반영되지 않았다"며 "조직개편안을 오는 19일까지 입법예고 및 의견 수렴후 6월 도의회 의결을 거쳐 하반기 정기인사에 적용하겠다"고 말했다. 강승남 기자 stipool@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광지서 새끼낙타 7마리 출산..."우와, 귀엽다" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광지서 새끼낙타 7마리 출산..."우와, 귀엽다" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광지서 새끼낙타 7마리 출산..."우와, 귀엽다" 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.05.04 14:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도 몽골리안 마상쇼 관광지인 '포니밸리'에서 새끼 낙타 7마리가 탄생했다.포니밸리는 2년 전 호주에서 24마리 낙타들을 들여와 사육하고 있는데, 2주 전 새끼 7마리가 태어났다고 4일 전했다.2마리는 숫컷, 5마리는 암컷으로 40kg 정도로 모두 건강하다고 했다. 포니밸리측은 "조만간 새끼낙타들 방이 완성이 되면 적응을 잘 한 낙타들 부터 손님들에게 공개할 예정"이라며 "날씨가 좋은날은 실내에서 나와 일광욕도 즐기고 맑은 공기도 마시게 하며 담당 수의사와 상의해서 엄마낙타의 젖이 잘 나올수 있도록 특별식과 비타민등도 많이 준비를 해 둔 상태"라고 말했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도·베트남관광협회 ‘맞손’ &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도·베트남관광협회 ‘맞손’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도·베트남관광협회 ‘맞손’ 기자명 최병근 기자 입력 2016.05.03 13:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2일, 관광·문화·스포츠교류 마케팅 협약 [제주도민일보=최병근 기자] 제주와 베트남 광린성관광협회가 상호 협력을 위해 손을 잡았다.제주도와 제주특별자치도관광협회(회장 김영진)는 2일 제주웰컴센터에서 베트남 북부 지역을 중심으로 한 직항 전세기 관광상품 개발 및 상호 교류 활성화를 통해 양지역간 관광‧문화‧스포츠교류 비즈니스 협력마케팅 증진을 위한 우호교류 협약을 체결했다.이번 협약을 맺은 베트남 광린성지역은 2011년 제주와 함께 세계 7대자연경관에 선정된 하롱베이시로 유명한 곳이다.한편 베트남 최대 국영여행사인 사이공투어리스트와 도내업계는 베트남 부유층을 대상으로 제주관광상품을 개발‧판매해 베트남‧광린성관광협회 방문단과 같은 직항 전세기편을 이용 150여명이 입국해 지난 29일부터 3일까지 제주에 체류하며 여행을 즐겼다.제주도관광협회 관계자는 “이번 우호협력 네트워크 채널의 확대를 기회삼아 베트남 관광객들이 좀 더 많이 제주를 방문할 수 있도록 직항 전세기 상품 개발 등 접근성 개선에 집중할 예정”이라며 “무엇보다 무비자를 악용한 불법체류자 양성을 근절하기 위해 베트남 국영여행사를 활용한 안정적인 관광객유입이 확보되도록 최선을 다할 것”이라고 밝혔다.또한 “최근 들어 베트남에서도 만연한 저가 상품위주의 시장구조를 탈피한 고부가가치 상품을 중심으로 제주관광 홍보 및 마케팅에 활용해 제주관광 시장 다변화 및 질적 성장을 꾀할 계획”이라고 덧붙였다.제주입도 베트남 관광객은 2014년에는 3만1900여명, 2015년도 2만6800여명으로 전년대비 16% 감소했고, 2016년도는 1월말 현재 770명의 베트남 관광객이 제주를 방문했다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도에 관광국 신설...일부 사업소는 통폐합 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도에 관광국 신설...일부 사업소는 통폐합 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도에 관광국 신설...일부 사업소는 통폐합 기자명 이기봉 기자 입력 2016.05.13 09:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주시 안전교통국 서귀포시 문화관광체육국 신설지방공무원 정원도 88명 증원...13일 입법예고 [제주도민일보=이기봉 기자]  제주도청내 기구중 국제통상국이 폐지되는 대신 관광국이 신설되고 문화관광스포츠국은 문화체육대외협력국으로 바뀐다.도시건설국과 농수축산식품국을 그대로 유지되면서 제주도 세계유산.한라산연구원과 한라산국립공원사무소가 통폐합되고, 도로관리사업소가 폐지돼 본청으로 이관된다.제주시에는 안전교통국이, 서귀포시에는 문화관광체육국이 신설된다.제주도는 이같은 내용을 주요 골자로 한 제주도 행정기구 설치 조례 전부 개정조례안을 13일 입법 예고했다.그 내용을 보면 기획조정실과 안전관리실, 특별자치행정국, 문화체육대외협력국, 관광국, 도시건설국, 보건복지여성국, 경제통상산업국, 농축산식품국, 해양수산국, 소방본부, 환경보전국, 공항확충지원본부를 두도록 하고 있다.이중 행정부지사 소관에는 기획조정실과 안전관리실, 특별자치행정국, 문화체육대외협력국, 관광국, 도시건설국, 보건복지여성국, 경제통상산업국, 농축산식품국, 해양수산국, 소방본부 소관 사무를 맡도록 하고 정무부지사는 환경보전국, 공항확충지원본부를 비롯해 의회와 언론홍보 등과 관련한 사무를 분장하도록 하고 있다.소통정책관은 명칭이 공보관으로 바뀌어 정무부지사 산하로, 의회협력관은 폐지돼 의회협력담당으로 협치기획관 산하에 편제된다.이를 보면 국제자유도시건설국이 도시건설국으로, 경제산업국이 경제통상산업국으로 명칭이 바뀌는 것이다.수자원본부는 상하수도본부로, 돌문화공원관리사무소는 돌문화공원관리소로 명칭을 달리하고 있다.공항확충지원본부의 존속기한은 2019년 1월31일까지로 하고 있다.또한 세계유산.한라산연구원과 한라산국립공원사무소가 제주도세계유산본부로 통폐합되면서 도 문화정책과에서 관장하던 문화재 업무까지 맡아 본부장은 4급에서 3급으로 확대 개편된다.도로관리사업소는 폐지돼 도시건설국으로 편입되고, 수자원본부에서 담당하던 수자원 정책기능이 도본청으로 이관돼 환경보전국에서 수행하게 된다.이외에도 전문성과 독립성 강화를 위해 감사위원회 조직을 보강해 1과 1팀이 신설된다.제주시에는 자치행정국, 안전교통국, 사회복지위생국, 문화관광체육국, 청정환경국, 농수축산국, 도시건설국을, 서귀포시에는 자치행정국, 주민생활지원국, 문화관광체육국, 경제산업농지국 안전환경도시국을 두게 된다.양 행정시에 각각 1개국씩 신설되고 국 명칭과 업무분장이 새로 조정되는 셈이다. 행정계층간 기능 재정립을 ㅜ이해 조정되는 사무는 모두 347개로, 이중 직속기관.사업소장은 39개, 행정시장은 214개, 읍면동장에게는 38개 등 행정시에 243개 사무가 위임된다.대신 행정시에 인원이 일부 증원된다. 제주시에 50명, 서귀포시에 24명 등 행정시에 74명을 증원하고 있다.이에 따라 제주도 본청은 13개 49과에서 13국 48개과로 1과가 축소되고, 사업소는 15개에서 13개로 조정되면서 정원은 기존 총 5284명에서 88명 늘어난 5372명으로 조정된다.김정학 도 기획조정실장은 "이번 조직개편안은 핵심현안 조직을 확충하고 기능이 쇠퇴한 사무 인력은 감축, 인구 증가 등에 따른 현장 대응력 강화, 행정계층간 기능 재정립을 위한 사무.인력의 행정시 이관에 중점을 뒀다"며 "오는 19일까지 입법예고를 실시해 의견을 수렴한 후 도의회에 제출할 예정"이라고 밝혔다.한편 인재개발원과 보건환경연구원, 보훈청, 소방서, 문화예술진흥원, 민속자연사박물관, 축산진흥원, 서울본부, 한라도서관, 설문대여성문화센터, 돌문화공원, 고용센터, 지방노동위원회는 현행대로 유지된다. 관련기사 서귀포시 행정기구 개편안 제주시 행정기구 개편안 제주도 직속기관․사업소․합의제기관 개편안 제주도 본청 행정기구 개편안 이기봉 기자 daeun4680@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 조직개편안...국제통상국 '해체', 관광국 '신설' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 조직개편안...국제통상국 '해체', 관광국 '신설' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 조직개편안...국제통상국 '해체', 관광국 '신설' 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2016.05.12 17:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 6월 도의회 임시회 거쳐 7월 정기인사부터 적용 행정시 '1국' 증설 집행기능 강화...'새판짜기' 본격화 제주특별자치도 조직개편안이 마련돼, 6월 도의회 임시회를 거쳐 7월 정기인사부터 본격 시행된다.제주특별자치도는 지난해 (주)한국능률협회컨설팅에 의뢰해 수행했던 조직진단 연구용역 결과를 바탕으로 해 추가 논의를 거쳐 조직개편 작업을 마무리하고, 13일 이의 내용을 담은 제주도 행정기구설치조례 개정안 및 제주도 공무원정원조례 개정안을 입법예고한다고 밝혔다.이번 조직개편안은 제주도의 경우 기획기능을 강화하고, 행정시 조직은 집행기능을 강화하는 방향으로 짜여졌다고 밝혔다. 제주도 본청 조직의 경우 경제부지사 신설 없이 현행 행정부지사와 정무부지사를 중심으로 한 '2실, 2본부, 9국체제'를 그대로 유지하면서 실.본부.국 단위 조직을 상당부분 재편했다.그중 '국제통상국'은 편재된 과 단위 조직을 다른 국으로 이동시키는 방향으로 통폐합되면서 사실상 해체된다.대신 국내 지자체에서는 처음으로 '관광국'이 신설된다. 제주관광 정책의 컨트롤타워 역할을 하게 될 '관광국'은 국제통상국 소속이던 투자정책과를 비롯해 관광정책과, 관광산업과, 카지노산업과로 편재된다. '문화스포츠국'은 종전 문화정책과와 스포츠산업과, 그리고 국제통상국 소속이던 평화협력과 등으로 편재된다.환경국과 공항인프라확충본부는 정무부지사 직속으로 놓기로 했다. 3급 직위의 '세계자연유산본부'도 신설된다.통상정책과와 의회협력담당관 등 4개과는 연관 과 단위 부서와 업무를 통합하는 것으로 결론이 났다.대신 전략산업과를 신설해 전기차와 신재생에너지 업무를 담당하도록 하고, 도시재생과 등 3개과가 새롭게 편재된다.특별자치행정국 소속으로 이동하는 것이 검토됐던 총무과는 현행대로 행정부지사 직속 독립부서를 그대로 유지하기로 했다.기획조정실에는 미래비전과 국제자유도시종합계획 업무를 통합해 '국제자유도시.미래비전' 담당직제가 신설된다.청렴감찰 조직 강화 차원에서 '공직윤리감찰관' 등도 설치된다.이와함께 행정시 조직은 1개국이 신설되면서 한층 강화된다.제주시는 '안전교통국'이 신설되면서 기존 6국에서 7국체제로 재편된다. 서귀포시는 '문화관광국'이 신설되면서 5국체제에서 6국체제로 바뀌게 됐다.감사위원회의 경우 기능 강화를 위해 '1과.1팀'이 증설된다.이번 조직개편이 6월 도의회에 통과되면, 원희룡 제주도지사 임기 반환점인 7월 중 하반기 정기인사를 단행할 예정이다. &lt;헤드라인제주&gt;&lt;윤철수 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회-베트남광린성관광협회, 우호교류 협약 체결 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-베트남광린성관광협회, 우호교류 협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회-베트남광린성관광협회, 우호교류 협약 체결 기자명 고병수 기자 입력 2016.05.03 13:04 수정 2016.05.03 13:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 베트남 관광시장 공략 위한 비즈니스 협력 네트워크 확대 (제주=국제뉴스) 고병수기자 = 제주도와 제주특별자치도관광협회(회장 김영진)는 지난 4월28일 호치민-제주 직항 전세기를 통해 제주를 방문한 베트남관광협회 응웬 휴 토우 회장과 광린성관광협회 응웬 티 바오 회장 외 관계자 20여명을 맞아 환영행사 및 우호교류 간담회를 가졌다고 3일 밝혔다.이와 함께 道관광협회와 베트남 광린성관광협회는 2일 제주웰컴센터에서 양 지역간 관광‧문화‧스포츠교류 비즈니스 협력마케팅 증진을 위한 우호교류 협약을 체결했다.이에 앞서 道관광협회는 베트남 전 지역을 아우르며 베트남관광산업의 핵심적인 역할을 수행하고 있는 베트남관광협회와 2015년 3월 24일 우호교류 협약을 맺은바 있고 지속적인 교류를 통해 상호 관광산업 발전을 위한 다양한 협업 체계를 구축해 나가고 있다.이번 협약을 맺은 베트남 광린성지역은 지난 2011년 제주와 함께 세계 7대자연경관에 선정된 하롱베이시로 유명한 곳으로 수려한 자연경관으로 유사점이 많은 양 지역을 대표하는 유력 관광단체의 공동 협력 마케팅이 앞으로 기대가 되고 있다.이와 함께 베트남 최대 국영여행사인 사이공투어리스트와 도내업계는 베트남 부유층을 대상으로 제주관광상품을 개발‧판매해 베트남‧광린성관광협회 방문단과 같은 직항 전세기편을 이용 150여명이 입국해 지난 29일부터 3일까지 제주에 체류하는 투어일정을 진행했다. 관계자는 "앞으로 제주도와 도관광협회는 이번 우호협력 네트워크 채널의 확대를 기회삼아 베트남 관광객들이 좀 더 많이 제주를 방문하도록 직항 전세기 상품 개발 등 접근성 개선에 집중할 계획"이라고 말했다.또한 "무비자를 악용한 불법체류자 양성을 근절하기 위해 베트남 국영여행사를 활용한 안정적인 관광객유입이 확보되도록 최선을 다할 예정"이라고 덧붙였다.한편 제주입도 베트남 관광객은 2014년에는 3만1900여명, 2015년도 2만6800여명으로 전년대비 16% 감소했고 2016년도는 1월말 현재 770명의 베트남 관광객이 제주를 방문했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>이데일리-세상을 올바르게,세상을 따뜻하게 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 경제 정치 사회 증권 부동산 문화 연예 오피니언 포토 글로벌마켓 팜이데일리 마켓in 스냅타임 PICK NEWS 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 PICK NEWS "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 흉기 위협·강제추행도 집유...아동학대에 관대한 재판부 상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 이재명 더불어민주당 대표의 ‘친일 국방’ 발언에 대한 정진석 국민의힘 비상대책위원장의 반박 발언을 두고 민주당 의원들이 “친일 앞잡이” 등 강도 높은 표현으로 일제히 비판의 목소리를 높였다. 더불어민주당 이재명 대표가 11일 오전 서울 여의도 국회에서 열린 긴급안보대... “키스 5단계는” “치마 짧으면...”..선생님이 이런 농담을 중학생들에게 성적 농담 등의 부적절한 발언을 했다가 해임된 교사가 징계 처분에 불복해 민사 소송을 냈지만 패소했다.기사와 무관함 (사진=이미지투데이)11일 인천지법 민사11부(정창근 부장판사)는 전직 중학교 교사 A씨가 학교법인을 상대로 낸 해임처분 무효 등 확인 소... 팜이데일리 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 실시간뉴스 믿었던 수출도 마이너스…10월1~10일 무역적자 38억달러 대진대-대한상의, ICT분야 인재 양성위해 '맞손' 머스크의 친중 발언…테슬라 中판매도 신기록 [오늘의 월가이슈] 일본 자유여행길 열린 날…인터파크 '항권권 최저가 보상제' 도입 피카소 명화 '한국에서의 학살'에 손 붙인 호주 환경단체 "클라우드 보안인증 개편, 시행일 못박지 말고 공청회 거쳐야"[2022 국감] 인권위 "시험 중 화장실 이용 제한은 인권침해" 포천시 주택·건물·공공청사 278곳에 신재생에너지 시설 설치 경동나비엔, '한국산업 고객만족도' 보일러 1위 고궁 수유실, 영유아 동반하면 성차별 없이 이용 이슈 포커스 #2022 국정감사 #금리 인상 여파 #집값, 폭락 vs 그래도 상승? #尹 대통령 비속어 파문 #신당역 역무원 피살 사건 코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 광역급행철도(GTX) 개통에 따른 한국철도공사(코레일)의 연간 수입 감소액이 1000억원을 넘길 것이란 전망이 나왔다. 11일 코레일이 국회 국토교통위원회 소속 허종식 더불어민주당 의원실에 제출한 연구 용역 `GTX 등 장래 환경 변화가 광역철도에 미치는 영향 연구`... "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '불가'" 지난 2016년 현직 법관이 뇌물수수 혐의에 연루된 ‘정운호 게이트’가 터지면서 법원이 자정 노력의 일환으로 도입을 약속한 ‘비위 법관 공무원연금 감액 제도’가 6년이 지나도록 도입되지 않고 있다. 법원은 미도입 사유에 대해 ‘헌법의 법관 신분 보장과 충돌한다’고 설... 버냉키의 경고 "강달러發 신흥국 자본유출 위험" “(우크라이나 전쟁과 환율 변동성으로 인해) 글로벌 금융 여건이 악화하는 상황을 예의주시해야 한다.”올해 노벨경제학상을 공동 수상한 벤 버냉키 전 미국 연방준비제도(Fed) 의장은 10일(현지시간) 워싱턴DC 브루킹스연구소에서 기자회견을 열고 “아직 금융 문제가 (위... 확진 1만 5476명..오늘부터 개량백신 접종, 예약률 0.8% 코로나19 감염으로 인한 11일 0시 기준 신규 확진자는 1만 5476명을 나타냈다. 전주 동일인 지난달 4일(1만 6415명)과 비교해 939명이 줄어든 숫자로 보합세였다. 사망자는 10명으로 석 달 만에 최저치를 기록했다.6일 오전 서울 중구보건소에 마련된 선별진... 인터넷 포털에서 ‘윤석열차’ 검색해 봤더니… 2022년 10월 11일 오전 9시, 네이버에서 ‘윤석열차’를 이미지 검색한 화면2022년 10월 11일 오전 9시 다음에서 ‘윤석열차’를 이미지 검색한 화면2022년 10월 11일 오전 9시, 구글에서 ‘윤석열차’를 이미지 검색한 화면인터넷에서 정보를 찾는 관문국인... 10명 중 6명 "내 집 마련 어려워질 것"..청년 74% 한은, 석 달만에 다시 ‘빅스텝’…연말 금리 3.5% 간다 한국은행이 이번 달에도 기준금리를 한꺼번에 0.5%포인트 올리는 ‘빅스텝’에 나설 것이란 의견이 힘을 받고 있다. 한은이 10월·11월 두 달 연속 빅스텝을 단행한 후 내년께 기준금리를 3.75%까지 올릴 것이라는 관측이 나온다. [이데일리 김일환 기자]10일 이데일... 나경원 “유승민이 7주째 당대표 1등? 국민의힘에선 내가 1등” 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] "어머님 포기 못합니다" 여중생과 부적절 관계한 사범의 변명 北리설주, 미사일 발사장 첫 동행…귀 막고 얼굴 찡그려 인터뷰더보기 "다양성·확장성으로 차별화…'역시 LG아트센터다'라는 말 듣고파"[만났습니다] “역삼동 LG아트센터가 동시대성을 가진 세계의 우수한 공연예술 작품을 소개하는 것에 집중했다면, 마곡에서 새로 시작하는 LG아트센터 서울은 기존 색깔을 유지하면서 더 다양한 관객을 아우르는 프로그램을 선보이려고 합니다. ‘확장성’과 ‘다양성’이 향후 LG아트센터 서울... 궁금하세요? 즉시 답해드립니다.더보기 "내가 횡령했다"는 박수홍 부친…친족상도례가 뭔가요? 답변확인 '킹달러' 시대, 해외직구…달러는 '시들' 엔은 '활짝' 답변확인 택시 치여 숨진 제주 여중생…황색점멸신호 어기면 처벌은 답변확인 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 선우은숙(왼쪽) 유영재 아나운서[이데일리 스타in 김가영 기자] 배우 선우은숙(63)이 4살 연하 유영재 아나운서(59)와 결혼했다.11일 선우은숙 소속사 스타잇엔터테인먼트는 “선우은숙 씨가 좋은 인연을 만나 결혼이라는 사랑의 결실을 맺게 됐다”고 밝혔다.상대는 유영재... 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" (사진=SBS ‘동상이몽2’ 방송화면)[이데일리 스타in 윤기백 기자] 가수 임창정, 서하얀 부부가 새집을 공개했다.10일 방송된 SBS 예능 ‘동상이몽2-너는 내 운명’에서는 경기도 고양시 일산동구의 고급 빌라에서 같은 동네 아파트로 이사한 임창정, 서하얀 부부의 모... [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 시몬 한타이 ‘수채화’(1971·사진=성곡미술관)[이데일리 오현주 문화전문기자] 헝가리 출신 프랑스 작가 시몬 한타이(1922∼2008). 20세기 후반 세계 추상의 대가 중 한 명으로 꼽힌다. 하지만 여느 추상화가와는 좀 다르다. 의미를 구도로 삼고 스토리를 색으로 ... '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 김현정 ‘장미빛 검은빛’(2022), 캔버스에 오일, 181.8×227.5㎝(사진=유아트스페이스)[이데일리 오현주 문화전문기자] 꽃그림이라고 다 같은 꽃그림이 아니듯, 장미라고 다 같은 장미가 아니다. 나홀로 고고하게 피어 세상을 독점하는 장미가 있는가 하면 무더기로 ... '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 드라마 ‘작은 아씨들’의 주역 김고은이 10월 배우 브랜드 평판에서 1위를 차지했다. 10일 한국기업평판연구소에 따르면 지난 9월 10일부터 10월 10일까지 방영한 드라마에 출연중인 배우 50명의 브랜드 빅데이터 6787만6551개를 분석한 결과 1위 김고은, 2위... 오피니언더보기 사설 심상찮은 멀티데믹 조짐, 추가 접종ㆍ방역 서둘러야 데스크칼럼 봇물터진 대기업 바이오 진출, 성공조건은 서소문칼럼 ''민주주의 무기고''된 K방산 연재기사 e갤러리 외환브리핑 김보겸의 일본in 그해 오늘 헬프! 애니멀 누구집 플라스틱 넷제로 딴소리 이데일리 YouTube 투자의 이유, 이유TV 모든 투자엔 이유가 있다 PLAY 韓이커머스 기업 쿠팡(CPNG) / “온라인시장 재편의 주체될 것” / 온라인시장 성장둔화로 이커머스 재편 가속화_주목! 이 기업 (20221011) 2022-10-11 오전 10:22:09 하이니티 High_nity 10대의 뉴스는 다르다 PLAY 체육 시간에 체육 못해서 만든 영상 #학생 #학교 #고3 #수능 #시험 #운동 2022-10-08 오후 5:00:30 약오른기자들 바이오 성공 투자! 1%를 위한 PLAY 코오롱티슈진-신라젠, 상장폐지 여부 촉각...23만 개미 웃을수 있을까 #팜이데일리 2022-10-08 오전 10:00:11 스냅타임 MZ세대를 위한 뉴스! PLAY 이 경고등에 불들어오면 즉시 멈추세요 2022-10-07 오후 6:50:05 Today’s 컷뉴스 # 2022국감 "클라우드 보안인증 개편, 시행일 못박지 말고 공청회 거쳐야"[2022 국감] # 신율의 이슈메이커 (영상)김태흠 "육사 이전, 尹공약이자 제 공약…로드맵대로 추진" # 애스톤사이언스 대해부 ③“시장 상황으로 밀렸다...IPO 내년 실행” # 김보겸의 일본in 엔저 심하다 해도…원화가치 더 떨어졌다 # 만났습니다 "다양성·확장성으로 차별화…'역시 LG아트센터다'라는 말 듣고파" # BIFF 허문영 집행위원장 "9개월 간 숨긴 양조위, 입이 근질"② 연예 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' MBN ‘어른들은 모르는 고딩엄빠2’(이하 ‘고딩엄빠2’)에서 19세에 엄마가 된 ‘고딩엄마’ 김가연이 어려운 형편 속에서도 꿋꿋이 딸을 키워가는 일상을 공개해 3MC의 마음을 뭉클하게 한다.11일(오늘) 밤 10시 20분 방송될 MBN 예능 ‘어른들은 모르는 고딩엄... '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 배우 최시원이 ‘얼어죽을 연애따위’ 현실감 넘치는 열연으로 ‘최시원표 로코’를 완성시켰다.최시원은 ENA 새 수목드라마 ‘얼어죽을 연애따위’(극본 김솔지, 연출 최규식, 기획 KT스튜디오지니, 제작 스토리티비)에서 일도 연애도 흥미를 잃은 성형외과 페이닥터 ‘박재훈’... 스포츠 '불펜 마당쇠' KT 전유수, 18년 정든 프로 마운드 떠난다 KT위즈 투수 전유수. 사진=KT위즈[이데일리 스타in 이석무 기자] ‘불펜 마당쇠’로 불린 KT위즈 베테랑 우완투수 전유수(36)가 은퇴를 결정했다.KT 구단은 11일 “전유수가 2022 시즌을 끝으로 선수 생활을 마무리한다”고 밝혔다.전유수는 2005년 2차 8라운... '선수는 즐거웠고, 팬들은 신나'..하이트진로 챔피언십 4만 갤러리에 흥행도 '대박' 박성현이 갤러리 앞을 걸어가고 있다. (사진=이데일리DB)[이데일리 스타in 주영로 기자] 박민지(24)의 시즌 5승과 박성현(29)의 ‘부활’로 관심을 끈 한국여자프로골프(KLPGA) 투어 시즌 마지막 메이저 대회 하이트진로 챔피언십이 역대 최다 관중과 최고 시청률을... 두근두근 핫포토더보기 우승 가자! ; 北 전술핵운용부대 ; '드레스를 조심해' ; 이동의 즐거움더보기 경기침체에 경형 전기차 뜬다…'캐스퍼·레이' 출격 [타봤어요] "특별한 프리미엄" 카니발 하이리무진 기반 '노블클라쎄 L9' 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 현대차·英 테이트, '세실리아 비쿠냐'展 열어…"공동체, 환경 등 현대 사회 반영" 르노코리아, 전시장 새 단장 기념 경품 이벤트 진행 어디로 떠날까더보기 정조의 화성행차, 사도세자 향한 효심 뒤에 숨긴 속내는? "첨단기술 입은 문화유산 세계유산의 가치 알린다" 한국인은 몰랐던 세부의 진짜 속살을 엿보다 미술관 옆 도서관 [200자 책꽂이]언어 천재들은 어떻게 말을 할까 외 [200자 책꽂이]통찰의 시간 외 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' [e갤러리] 잡동사니로 복원한 반전드라마…이미주 '어느 컬렉션' [이주헌의 혁신@미술]&lt;20&gt; 돈에 눈뜬 미술…'비즈니스 코치 시대' 열다 기자뉴스룸더보기 일본 자유여행길 열린 날…인터파크 '항권권 최저가 보상제' 도입 [포토]인사말하는 이기훈 웰바이오텍 회장 "클라우드 보안인증 개편, 시행일 못박지 말고 공청회 거쳐야"[2022 국감] 인권위 "시험 중 화장실 이용 제한은 인권침해" 포천시 주택·건물·공공청사 278곳에 신재생에너지 시설 설치 지금 뜨고 있는 뉴스 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 2022년 10월 11일 오늘의 운세 Today Photo [포토]건강댄스 배우는 시민들 [포토]건강한마당, 건강댄스 배우는 시민들 [포토]건강한마당, 건강댄스는 이렇게~ [포토]건강한마당, 댄스 배우는 시민들 [포토]자유통일당, '자유통일을 위한 천만서명 국민대회' [포토]자유통일을 위한 천만서명 국민대회 [포토]세종로를 가득 메운 자유통일당 국민대회 [포토]세종로에서 열린 국민대회 [포토]인사말하는 오세훈 서울시장 [포토]한강을 따라 걷는 2022 서울워크 [포토]한강을 걸어요! [포토]2022 서울워크 [포토]여성가족부 폐지에 관한 여성계 간담회 [포토]역대 여가부 장관들의 사진 [포토]발언하는 김현숙 여성가족부 장관 [포토]인사하는 김현숙 여성가족부 장관 [포토]선서하는 최재해 감사원장 [포토]'국정감사 출석하는 유병호 사무총장' [포토]'국정감사 출석하는 최재해 감사원장' [포토]"가을이 제일 좋다면서요"…가을맞이 서울꿈새김판 새단장 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도, 농어촌 체험마을 관광 활성화 팔 걷었다 &lt; 제주 &lt; 전국 &lt; 기사본문 - 한국농어민신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 홈 전체기사 facebook kakao twitter 로그인 회원가입 구독신청 서울 B 11℃ 미세먼지 좋음 경기 B 13℃ 미세먼지 좋음 인천 B 13℃ 미세먼지 좋음 광주 Y 16℃ 미세먼지 좋음 대전 Y 14℃ 미세먼지 좋음 대구 Y 16℃ 미세먼지 좋음 울산 B 16℃ 미세먼지 좋음 부산 B 16℃ 미세먼지 좋음 강원 H 11℃ 미세먼지 좋음 충북 B 14℃ 미세먼지 좋음 충남 B 13℃ 미세먼지 좋음 전북 B 15℃ 미세먼지 좋음 전남 H 16℃ 미세먼지 좋음 경북 Y 15℃ 미세먼지 좋음 경남 B 16℃ 미세먼지 좋음 제주 H 16℃ 미세먼지 좋음 세종 B 14℃ 미세먼지 좋음 전체메뉴 버튼 #물가 확대경 ‘물가관리’ 덫에 걸린 참깨…산지 생산기반 또 흔든다 대형마트 주요 농축산물 가격 ‘천차만별’ 정황근 장관 ‘물가 점검’ 현장 행보 정부, 생활·밥상 물가 잡기에 총력전 [품목포커스/양배추] 출하 줄었는데 수요 증가 ‘고공행진’ "치킨값 상승, 닭고기 가격 때문 아니다" 수확철 앞둔 수박 산지, 출하물량 부족에 ‘뒤숭숭’…“강세도 달갑잖아” [품목포커스/참외] 출하 물량 지난해보다 15~20% 줄어 ‘시세 양호’ [품목포커스/토마토] 이달 중순 이후 출하 몰려 약세 전망 [품목포커스/오이] 외식 수요 증가로 소비 확대 기대 “양파 가격 회복 안 돼…추가 폐기 시행하라” 옥수수 가격 1년새 두 배…천정부지 사룟값에 농가·업체 ‘죽을 맛’ #연재 계절근로자 유치·관리, ‘전문기관’ 위탁…지자체 부담 줄인다 “CPTPP 경제효과 거의 없고, 농업분야 타격 매우 클 것” “외국인 근로자 ‘이민농’으로 육성…지방소멸·인력난 대응” 농어촌공사, 농지 환매차익 ‘1824억’ 거뒀다 경북 영주, ASF 첫 발생…야생멧돼지 2마리 감염 계속되는 ASF…농가 피로도 높아 강원 양구서 ASF 3개월 만에 발생…한덕수 총리 “초동방역에 만전” ASF 주범 ‘멧돼지 감축정책’ 부실 ‘고용허가’ 외국인 근로자 5만명 대기…“입국절차 간소화” 주문 “고향사랑기부금, 답례품에 함몰되지 말아야” 케어사이드 “ASF 백신 후보주, 안전성·방어능 확인” “CPTPP 가입 땐 중국인삼 ‘한국산’ 표시 가능해져” 오피니언 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 농촌 2030 문광운의 화풍정(火風鼎) 농정 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 유통정책 유통현장 유통정보 업계소식 축산 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 전국 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 식품 식품정책 식품산업 식품기술 인삼ㆍ특용작물 수산 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 수출 수출정책 수출현장 해외시장정보 여성 정책 기관ㆍ단체 다문화 여성현장 농촌女담 농어민TV 검색 상세검색 검색 검색닫기 기사검색 검색 저장된 검색어가 없습니다. 키워드 제거 인기 검색어 1. 가을 2. 샤인머스켓 3. 교육 4. 밀키트 5. 한우가격 6. 농협사료 7. 반려식물 8. 한우 9. 돼지 10. 마늘 많이 본 기사 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 ‘9.25 쌀 대책’에 산지 가격 상승…벼 수매가 기대심리도 커진다 [한국농어민신문 김영민 기자] 정부의 9.25 쌀 수급대책 발표 이후 농민들의 올해 벼 수매가격에 대한 기대심리가 커지는 분위기다. 다만 지역농협이나 RPC(미곡종합처리장)는 신중... 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 산림청, 임업인 지원 예산 아랫돌 빼서 윗돌 괴기? 마늘 2023년산 재배면적 늘고, 양파는 감소 전망 [한국농어민신문 김관태 기자] 2023년산 마늘 재배면적은 올해보다 늘어나고, 양파는 감소할 것으로 보인다. 2022년산 건고추 생산량은 6만3000톤 내외로 전년 대비 20% 이... “시장격리 의무화 땐 쌀 공급 과잉 심화” 농경연 보고서 논란 [한국농어민신문 김선아 기자] 쌀 시장격리 의무화를 골자로 한 양곡관리법 개정안을 두고 여야가 충돌을 이어가고 있는 가운데 국책연구기관인 한국농촌경제연구원(이하 농경연)이 9월 3... 출하량 폭발 샤인머스켓, 2만원대 평균가격 무너졌다 [농협법 개정안 본회의 통과] 농협은행 신용공여 한도 삭제…자금운용 ‘숨통’ [한국농어민신문 김영민 기자] 농업협동조합법(이하 농협법) 일부 개정 법률안이 국회 본회의를 통과하면서 쌀 시장격리 등 정부의 매입자금 추가 차입에 숨통이 트일 전망이다.농협법 일... [분석] “명태 사라진 이유 ‘남획’ 탓 아니다”…한 교수 주장에 업계 들썩 본문영역 이전 기사보기 다음 기사보기 제주도, 농어촌 체험마을 관광 활성화 팔 걷었다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 농어촌 체험마을 관광 활성화 팔 걷었다 기자명 강재남 기자 승인 2016.05.10 09:05 신문 2815호(2016.05.13) 12면 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 기사스크랩하기 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 이 기사를 공유합니다 페이스북 공유 공유(으)로 기사보내기 트위터 공유 공유(으)로 기사보내기 카카오스토리 공유 공유(으)로 기사보내기 카카오톡 공유 공유(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도가 농어촌 체험마을 관광활성화를 위한 프로젝트를 추진한다.도는 농어촌 관광 활성화를 위해 ‘전국 최고 농어촌 체험휴양마을 사무장 되기 프로젝트’를 추진, 농림축산식품부와 협업을 통한 중앙·지방간 협력사업을 진행한다고 밝혔다.‘전국 최고 농어촌체험휴양마을 사무장 되기 프로젝트’는 ‘잘살고 즐거운 체험마을, 우리가 해봅주’라는 슬로건 아래 조직구성능력, 실무능력, 체험능력을 향상 시킬 수 있는 교육프로그램으로 이 달부터 오는 11월까지 총 6회에 걸쳐 회계·노무·세무, 사업기획·홍보기획안 작성, 보조금 관리 및 정산, 홈페이지 관리, 등급 결정 심사, 위생 및 안전관리 등 체험휴양마을의 실질적인 실무능력을 위한 교육을 중심으로 진행된다.또한 체험휴양마을간 교차 체험 및 우수교육농장체험, 우수 관광농원 체험 등을 통해 체험프로그램 운영능력을 향상시키고 새로운 체험프로그램 개발을 위한 기초자료도 제공한다.도는 이번 프로젝트를 통해 행정과 마을간 서로 소통하는 시간을 마련함은 물론 프로그램에 대한 당일 평가 및 향후 공동 토론을 추진할 예정이다.이와 함께, 농식품부와 협업을 통해 추진하는 중앙·지방간 협력사업은 공동홍보, 외국인 대상 교통·통역서비스 공동 제공, 농촌마을 연계 관광상품개발 등이다.공동홍보는 농촌관광 스탬프 투어, 농촌관광 외국어 홈페이지 구축, SNS홍보, AirBNB에 우수 농촌 숙박시설 등재 등을 중심으로 진행된다.이 외에도 외국인 개별여행객을 대상으로 체험휴양마을과 연계한 외국인 대상 교통·통역서비스 제공, 민간여행사 대상 제주 농촌마을 연계 관광상품 공모 등이 추진된다.양한식 지역균형발전과장은 “중앙부처와 지자체간 협업을 통해 사업 효과를 극대화시킴으로써 농어촌관광활성화 및 제주의 농어촌을 알리는 계기가 될 것으로 기대하고 있다”고 말했다.제주=강재남 기자 kangjn@agrinet.co.kr 강재남 기자 kangjn@agrinet.co.kr 기자 프로필 보기 저작권자 © 한국농어민신문 무단전재 및 재배포 금지 당신만 안 본 뉴스 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 ‘9.25 쌀 대책’에 산지 가격 상승…벼 수매가 기대심리도 커진다 잇단 ASF, 발생유형 달라…총체적 방역 점검 목소리 산림청, 임업인 지원 예산 아랫돌 빼서 윗돌 괴기? 마늘 2023년산 재배면적 늘고, 양파는 감소 전망 “시장격리 의무화 땐 쌀 공급 과잉 심화” 농경연 보고서 논란 3년 만에…깊어가는 가을, ‘전북 지역축제’ 활기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 [2022 국감] “후쿠시마 원전 오염수 방류, 국제해양법재판소 제소해야” 후쿠시마 원전 오염수 동향보고, 정부 ‘선택적 공개’했다 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 2억 들어간 풍황계측 데이터, 웃돈 10억 붙여 판매 천하제일사료 ‘원샷’ㅣ농가와 20년 동행…생산성 향상 ‘일등공신’ “돌봄농업 실천 위해선 지역 내 촘촘한 연결망 구축 필수” 전국 인기뉴스 전체 인기뉴스 1 가격 높은 ‘감홍’ 사과 인기…묘목 품귀현상도 2 ‘괴산세계유기농산업엑스포’ 7년 만에 막 올랐다 3 여주 벼 수매가 동결, 이천은 5000원 인하 4 가을은 축제의 계절…전북 곳곳 북적북적 5 “쌀값 보장하고, CPTPP 가입 추진 철회를” 1 자본금 1000만원 들여 7200배 수익…‘해상풍력 잭팟’ 사실이었다 2 ‘9.25 쌀 대책’에 산지 가격 상승…벼 수매가 기대심리도 커진다 3 마늘 2023년산 재배면적 늘고, 양파는 감소 전망 4 “시장격리 의무화 땐 쌀 공급 과잉 심화” 농경연 보고서 논란 5 출하량 폭발 샤인머스켓, 2만원대 평균가격 무너졌다 사진뉴스 전국은 가을꽃 축제 한창 떨어지는 쌀값, 쌓이는 벼…농민은 한숨만 다가오는 가을…철원평야 수놓은 황금빛 물결 ‘쌀가루’로 뽐내는 베이킹 실력 하단영역 매체정보 대표전화 : 02-3434-9000 팩스 : 02-3434-9077 홈페이지 관련 불편·건의사항 : webmaster@agrinet.co.kr 서울시 송파구 중대로9길 60 (인터넷광고 : 02-3434-9023 / 신문광고 : 02-3434-9011 / 구독문의 : 02-3434-9004) 신문등록번호 : 서울 아 03463 등록일 : 2014-12-05 발행일 : 2014-12-05 발행·편집인 : 이학구 청소년보호책임자 : 이학구 Copyright © 2022 한국농어민신문. All rights reserved. mail to webmaster@agrinet.co.kr 하단메뉴 매체소개 기자소개 구독신청 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 농정 전체 정책 국회ㆍ정당 농민단체 협동조합 임업 유통 전체 유통정책 유통현장 유통정보 업계소식 식품 전체 식품정책 식품산업 식품기술 인삼ㆍ특용작물 축산 전체 정책·유통 한우 낙농 돼지 닭ㆍ오리 특수가축 사료ㆍ약품ㆍ기자재 업계소식 농산 전체 농산업정책 비료ㆍ농약 농기계 농자재 영농기술 종자 친환경 전체 정책 생산ㆍ유통 친환경농자재 수출 전체 수출정책 수출현장 해외시장정보 전국 전체 농촌관광 경기 강원 충북 충남 전북 전남 경북 경남 제주 전국 수산 전체 종합 정책 수협 연근해ㆍ양식 유통ㆍ가공 렌즈 속 농어민 여성 전체 정책 기관ㆍ단체 다문화 여성현장 농촌女담 사람들 기획 오피니언 전체 농업마당 사설 기자수첩 기고ㆍ독자투고 이상길의 시선 오피니언 기고 정문기 칼럼 농훈칼럼 농어민만평 농촌 2030, 그들이 사는 법 문광운의 화풍정(火風鼎) 윤병선 칼럼 책 속의 한 줄 지역사회 의료이야기 테마 전체 농촌&amp;도시 귀농&amp;귀촌 교육&amp;문화 농업경영인 로컬푸드 건강&amp;생활 사진뉴스 전체 #렌즈 속 농어민 농어민TV 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 '폭설·강풍' 기상악화 빈번…공항에 발 묶이는 관광객 수 급증 검색 2022-10-11 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 제주도 '폭설·강풍' 기상악화 빈번…공항에 발 묶이는 관광객 수 급증 2016-05-04 09:54:48 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - 결항으로 인한 체류객 28만2000여명 추정 [미디어펜=온라인뉴스팀 기자] 제주시에 폭설과 강풍 등 기상악화가 번번히 일어나면서 대규모 결항사태가 발생해 제주공항에 발이 묶이는 관광객의 수가 급증했다. 4일 한국공항공사에 따르면 올해 제주공항에서 기상 악화로 1월 988편, 2월 119편, 3월 21편 등 총 1128편이 결항했다. 하루평균 12편 남짓 결항한 셈. 결항으로 인한 체류객은 예약 기준으로 봤을 때 28만2000여명으로 추정된다. ▲ 제주시에 폭설과 강풍 등 기상악화가 번번히 일어나면서 대규모 결항사태가 발생해 제주공항에 발이 묶이는 관광객의 수가 급증했다./미디어펜 1월∼3월에 기상악화로 결항한 2015년 30편, 2014년 52편, 2013년 78편, 2012년 58편, 2011년 55편이 결항됐다. 2011년∼2015년 5년간 같은 기간에 기상악화로 결항한 총 273편을 무려 4배 이상이다.지난 1월 23일~25일 전국적 기습 한파로 제주공항 활주로가 사상 처음으로 2박 3일간 장기 폐쇄돼 모두 900편이 넘는 항공편이 운항이 중지됐다. 활주로를 치울새 없이 계속 눈이 내렸기 때문이다. 눈이 그쳐도 제설장비를 제대로 갖추지 못했던 제주공항의 한계와 연일 이어진 윈드시어(난기류) 경보로 운항재개 시기도 늦춰졌다.한파에 갇힌 체류객만 약 9만 여명이었다. 제주도와 한국공항공사 제주본부, 제주지방항공청은 체류객 지원대책이 허술해 호된 질책을 받았다. 현재는 4단계(관심·주의·경계·심각)의 체계적인 체류객 관리 통합 메뉴얼을 만들어 시행하고 있다.한파가 지났더니 태풍급 강풍이 몰아쳤다. 풍향과 풍속 차이에 의한 윈드시어(난기류) 특보로 무더기 결항사태가 이어졌다. ‘폭설 대란’이 발생한 지 16일 만인 2월 26일과 지난달 16일, 이달 2일 등 세 차례나 강풍과 난기류에 속수무책으로 많은 항공기가 멈춰 섰다.저비용항공사가 대거 제주 기점 노선에 항공기를 투입하면서 늘어난 항공편수도 결항편을 늘렸다. 제주기점 노선은 항공업계에서는 '수요가 공급을 따라간다'는 말이 나올 정도로 항공편만 추가하면 이용객들이 몰리고 있는 상황이다. 1월∼3월 제주기점 항공편수는 2012년 2만7730편, 2013년 2만8238편, 2014년 2만9978편, 2015년 3만6404편, 2016년 4만566편 등으로 해마다 10％ 안팎으로 증가하고 있다. 한편 올해 1∼3월 제주공항 기상 악화 외에 결항 원인은 연결편 163편, 여객처리 119편, 정비문제 31편 등의 순으로 나타났다.[미디어펜=온라인뉴스팀 기자] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 나눔봉사단, 보육원 어린이 체험학습 지원 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 나눔봉사단, 보육원 어린이 체험학습 지원 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 나눔봉사단, 보육원 어린이 체험학습 지원 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.05.07 23:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 7일 제주보육원 어린이들과 함께 제주유리박물관 유리체험 학습을 지원하는 한편, 소정의 기념품도 전달했다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 인근 ‘더바른’ 아파텔 분양 - 국토일보 × 전체기사 사설 뉴스 전체 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 기업탐방 인사/동정/부고 입찰공고 입찰정보 특별좌담 논단 글로벌CEO 인터뷰 IT 금융·경제 교통/물류 문화·체육 건설인 축구동호회 탐방 국토정보 안전 오피니언 전체 기자수첩 국토논단 기고/논단 제언 時談事談 (시담사담) 칼럼 전체 의학상식 데스크 칼럼 재테크 칼럼 건설전문가 자유칼럼 국토일보 현장 25時 구인구직 전체 구인/구직 온라인건설일보 건설환경기술대상 건설문화대상 건설사진공모전 카드뉴스 UPDATED. 2022-10-11 12:07 (화) 로그인 회원가입 모바일웹 뉴스 건설 부동산 환경 업계 CM/ENG 자재/장비 철도/항만 에너지 신기술 기획/특집 인터뷰 지방종합 국토문화 안전 칼럼 데스크 칼럼 오피니언 의학상식 기고/논단 전문기자 Review 커뮤니티 공지사항 행사 건설환경기술대상 건설문화대상 건설인 축구대회 건설사진공모전 기사제보 구독신청 국토일보TV 기사검색 검색 이전 다음 제주도 중문관광단지 인근 ‘더바른’ 아파텔 분양 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 부동산 제주도 중문관광단지 인근 ‘더바른’ 아파텔 분양 이경옥 기자 승인 2016.05.11 09:40 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 더바른 투시도. [국토일보 이경옥 기자] 제주도 중문관광단지 인근에 위치한 ‘더바른’ 아파텔이 분양 중에 있다. 이곳은 총 80실로 전용 61.95㎡ 48실과 35.65㎡ 32실의 2개 단지로 구성될 예정이다.서귀포시는 2025년 개항을 목표로 한 ‘제2 신공항’ 개발이 진행 중으로 완공 시 약 2조764억원에 이르는 경제효과가 나타날 것으로 예상되며, 이로 인한 주변지역의 부가가치는 더욱 높아질 전망이다.이외에도 서귀포시 중문지역은 제주도의 대표 관광지로 유명한 천제연폭포, 여미지식물원을 비롯해 10개 이상의 숙박시설, 골프장 등이 조성돼 있어 중국인 투자자는 물론 국내 투자자들의 선호 투자처로 떠오르고 있는 곳이다.그 중 제주도 서귀포시 중문 일대에 들어서는 ‘더바른’은 70%의 높은 전용률과 1:1 주차공간 확보, 1층 필로티 설계 덕에 휴양단지로서의 조건을 갖추고 있다는 평이다.또한 풀 빌트인 시스템으로 에어컨, 드럼세탁기, 냉장고, 제습기 등이 갖춰져 있으며, 3bay 구조로 개방감을 극대화해 거실은 물론 모든 방에서 바다를 조망할 수 있다.단지 인근에 위치한 체육센터, 중문 초, 중학교 및 대형마트, 제주 국제컨벤션센터 등 다양한 생활편의시설은 입주민의 편리함을 증진시키는 동시에 교육 및 문화생활을 가능하다.2017년 1월 준공 예정이며, 아시아신탁 및 하이스트 종합건설에서 시공, 현재 계약금 500만원 정액제 및 중도금 60% 무이자 혜택 등을 제공하고 있다.홍보관은 서귀포시 중문동 1920-1번지 중문로터리 2층에 위치한다.이경옥 기자 kolee@ikld.kr 저작권자 © 국토일보 무단전재 및 재배포 금지 이경옥 기자 다른기사 보기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 뉴스레터 신청하기 이름 회사명 이메일 확인 ​ 인기기사 1SM경남기업, '군산 경남아너스빌 디오션' 11일(화)부터 조건변경 청약 실시 2구미시, 전국 1호 '공항경제권 특례도시' 지정 기대감에 부동산시장 고조 3주택시장 이끄는 GS건설 '자이(Xi)', 대구 남구 대명동에 '대명자이 그랜드시티' 선보여 4대한토목학회, 아시아토목공학협의회 의장국 맡아 5똘똘한 한 채 선호현상 가속화… '힐스테이트 양주옥정 파티오포레' 비규제 프리미엄 각광 6부동산 규제 속 틈새 투자처 ‘수익형 부동산’ 주목 7전문건설공제조합, 이사장 선임... 논란 뜨겁다 8현대로템, 인천 자기부상열차 유지보수 수주 9김포 주상복합 신축현장서 외벽 비계 무너져 10포장재 공제조합, ESG경영·친환경포장 사용확대 추진 최신기사 12일 전남 장흥·13일 경상도 거창~김천 구간 개통 12일 전남 장흥·13일 경상도 거창~김천 구간 개통 [국정감사] 한전 적자 위기, "文정권의 탈원전·전기료 인상 뭉개기가 원인" [국정감사] 한전 적자 위기, "文정권의 탈원전·전기료 인상 뭉개기가 원인" 국토부, 동물 로드킬 저감대책 수립 국토부, 동물 로드킬 저감대책 수립 [환경국감] 지방유역환경청 환경영향평가 사후관리 부실 [환경국감] 지방유역환경청 환경영향평가 사후관리 부실 옥천, 산업단지 조성사업 활발… 미래가치 기대감 고조 옥천, 산업단지 조성사업 활발… 미래가치 기대감 고조 [국정감사] 채용형 인턴에게 일만 시키고 경력 인정 안 하는 한전 [국정감사] 채용형 인턴에게 일만 시키고 경력 인정 안 하는 한전 로앤에이법률사무소, 지역주택조합 사업 정상화 종합 솔루션 제공 로앤에이법률사무소, 지역주택조합 사업 정상화 종합 솔루션 제공 신문사소개 윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 사당로 264-1 썬빌딩 2층 대표전화 : 02-712-5678 팩스 : 02-712-6262 청소년보호책임자 : 김광년 명칭 : 주식회사 국토일보 (1994년 건설일보사로 출범) 제호 : 국토일보 인터넷신문 등록번호 : 서울 아 04947 등록일 : 2018-01-24 발행인·편집인 : 김광년 국토일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국토일보. All rights reserved. mail to kld@ikld.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -431,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -502,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +699,319 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
